--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2014.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2014.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="719" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="719" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">G.SUPERVISION!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2428,19 +2427,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2452,11 +2460,14 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2467,22 +2478,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,29 +2508,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2551,6 +2556,18 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2567,24 +2584,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2915,42 +2914,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2970,23 +2969,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -3109,38 +3108,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162" t="s">
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="166" t="s">
+      <c r="H12" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="164" t="s">
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="157" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="160"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3150,9 +3149,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="160"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3174,7 +3173,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="160"/>
+      <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -3745,14 +3744,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="158"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -3785,42 +3784,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="151" t="s">
+      <c r="A35" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="152"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="163"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -3943,38 +3942,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="159" t="s">
+      <c r="A43" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="161" t="s">
+      <c r="B43" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="162" t="s">
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="162" t="s">
+      <c r="F43" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="164" t="s">
+      <c r="G43" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="166" t="s">
+      <c r="H43" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="168"/>
-      <c r="O43" s="164" t="s">
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="157" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="160"/>
+      <c r="A44" s="158"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -3984,9 +3983,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="163"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="160"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="158"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -4008,17 +4007,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="160"/>
+      <c r="O44" s="158"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="155"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="171"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -4473,14 +4472,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="157"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="158"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="161"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -4513,42 +4512,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="151" t="s">
+      <c r="A69" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="151"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="151"/>
-      <c r="E69" s="151"/>
-      <c r="F69" s="151"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="151"/>
-      <c r="K69" s="151"/>
-      <c r="L69" s="151"/>
-      <c r="M69" s="151"/>
-      <c r="N69" s="151"/>
-      <c r="O69" s="151"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="162"/>
+      <c r="F69" s="162"/>
+      <c r="G69" s="162"/>
+      <c r="H69" s="162"/>
+      <c r="I69" s="162"/>
+      <c r="J69" s="162"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="162"/>
+      <c r="M69" s="162"/>
+      <c r="N69" s="162"/>
+      <c r="O69" s="162"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="152"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="152"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="152"/>
-      <c r="O70" s="152"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
+      <c r="I70" s="163"/>
+      <c r="J70" s="163"/>
+      <c r="K70" s="163"/>
+      <c r="L70" s="163"/>
+      <c r="M70" s="163"/>
+      <c r="N70" s="163"/>
+      <c r="O70" s="163"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -4671,38 +4670,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="159" t="s">
+      <c r="A77" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="161" t="s">
+      <c r="B77" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="161"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="162" t="s">
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="162" t="s">
+      <c r="F77" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="164" t="s">
+      <c r="G77" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="166" t="s">
+      <c r="H77" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="167"/>
-      <c r="J77" s="167"/>
-      <c r="K77" s="167"/>
-      <c r="L77" s="167"/>
-      <c r="M77" s="167"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="164" t="s">
+      <c r="I77" s="155"/>
+      <c r="J77" s="155"/>
+      <c r="K77" s="155"/>
+      <c r="L77" s="155"/>
+      <c r="M77" s="155"/>
+      <c r="N77" s="156"/>
+      <c r="O77" s="157" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="160"/>
+      <c r="A78" s="158"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -4712,9 +4711,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="163"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="160"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="158"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -4736,17 +4735,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="160"/>
+      <c r="O78" s="158"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="154"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="154"/>
-      <c r="F79" s="155"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="171"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -5179,14 +5178,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="156" t="s">
+      <c r="A99" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="157"/>
-      <c r="C99" s="157"/>
-      <c r="D99" s="157"/>
-      <c r="E99" s="157"/>
-      <c r="F99" s="158"/>
+      <c r="B99" s="160"/>
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="161"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -5272,42 +5271,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="151" t="s">
+      <c r="A105" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="151"/>
-      <c r="C105" s="151"/>
-      <c r="D105" s="151"/>
-      <c r="E105" s="151"/>
-      <c r="F105" s="151"/>
-      <c r="G105" s="151"/>
-      <c r="H105" s="151"/>
-      <c r="I105" s="151"/>
-      <c r="J105" s="151"/>
-      <c r="K105" s="151"/>
-      <c r="L105" s="151"/>
-      <c r="M105" s="151"/>
-      <c r="N105" s="151"/>
-      <c r="O105" s="151"/>
+      <c r="B105" s="162"/>
+      <c r="C105" s="162"/>
+      <c r="D105" s="162"/>
+      <c r="E105" s="162"/>
+      <c r="F105" s="162"/>
+      <c r="G105" s="162"/>
+      <c r="H105" s="162"/>
+      <c r="I105" s="162"/>
+      <c r="J105" s="162"/>
+      <c r="K105" s="162"/>
+      <c r="L105" s="162"/>
+      <c r="M105" s="162"/>
+      <c r="N105" s="162"/>
+      <c r="O105" s="162"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="152" t="s">
+      <c r="A106" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="152"/>
-      <c r="C106" s="152"/>
-      <c r="D106" s="152"/>
-      <c r="E106" s="152"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="152"/>
-      <c r="H106" s="152"/>
-      <c r="I106" s="152"/>
-      <c r="J106" s="152"/>
-      <c r="K106" s="152"/>
-      <c r="L106" s="152"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="152"/>
-      <c r="O106" s="152"/>
+      <c r="B106" s="163"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="163"/>
+      <c r="E106" s="163"/>
+      <c r="F106" s="163"/>
+      <c r="G106" s="163"/>
+      <c r="H106" s="163"/>
+      <c r="I106" s="163"/>
+      <c r="J106" s="163"/>
+      <c r="K106" s="163"/>
+      <c r="L106" s="163"/>
+      <c r="M106" s="163"/>
+      <c r="N106" s="163"/>
+      <c r="O106" s="163"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -5327,23 +5326,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="169" t="s">
+      <c r="A108" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="169"/>
-      <c r="C108" s="169"/>
-      <c r="D108" s="169"/>
-      <c r="E108" s="169"/>
-      <c r="F108" s="169"/>
-      <c r="G108" s="169"/>
-      <c r="H108" s="169"/>
-      <c r="I108" s="169"/>
-      <c r="J108" s="169"/>
-      <c r="K108" s="169"/>
-      <c r="L108" s="169"/>
-      <c r="M108" s="169"/>
-      <c r="N108" s="169"/>
-      <c r="O108" s="169"/>
+      <c r="B108" s="153"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="153"/>
+      <c r="F108" s="153"/>
+      <c r="G108" s="153"/>
+      <c r="H108" s="153"/>
+      <c r="I108" s="153"/>
+      <c r="J108" s="153"/>
+      <c r="K108" s="153"/>
+      <c r="L108" s="153"/>
+      <c r="M108" s="153"/>
+      <c r="N108" s="153"/>
+      <c r="O108" s="153"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -5466,38 +5465,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="159" t="s">
+      <c r="A115" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="161" t="s">
+      <c r="B115" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="161"/>
-      <c r="D115" s="161"/>
-      <c r="E115" s="162" t="s">
+      <c r="C115" s="165"/>
+      <c r="D115" s="165"/>
+      <c r="E115" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="162" t="s">
+      <c r="F115" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="164" t="s">
+      <c r="G115" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="166" t="s">
+      <c r="H115" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="167"/>
-      <c r="J115" s="167"/>
-      <c r="K115" s="167"/>
-      <c r="L115" s="167"/>
-      <c r="M115" s="167"/>
-      <c r="N115" s="168"/>
-      <c r="O115" s="164" t="s">
+      <c r="I115" s="155"/>
+      <c r="J115" s="155"/>
+      <c r="K115" s="155"/>
+      <c r="L115" s="155"/>
+      <c r="M115" s="155"/>
+      <c r="N115" s="156"/>
+      <c r="O115" s="157" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="160"/>
+      <c r="A116" s="158"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -5507,9 +5506,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="163"/>
-      <c r="F116" s="165"/>
-      <c r="G116" s="160"/>
+      <c r="E116" s="167"/>
+      <c r="F116" s="168"/>
+      <c r="G116" s="158"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -5531,7 +5530,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="160"/>
+      <c r="O116" s="158"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -5660,14 +5659,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="156" t="s">
+      <c r="A122" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="157"/>
-      <c r="C122" s="157"/>
-      <c r="D122" s="157"/>
-      <c r="E122" s="157"/>
-      <c r="F122" s="158"/>
+      <c r="B122" s="160"/>
+      <c r="C122" s="160"/>
+      <c r="D122" s="160"/>
+      <c r="E122" s="160"/>
+      <c r="F122" s="161"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -5710,6 +5709,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -5726,34 +5753,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -5788,42 +5787,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5843,23 +5842,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -5982,36 +5981,36 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162" t="s">
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="166" t="s">
+      <c r="H11" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
       <c r="O11" s="126"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="131" t="s">
         <v>14</v>
       </c>
@@ -6021,9 +6020,9 @@
       <c r="D12" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="173"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="175"/>
       <c r="H12" s="131" t="s">
         <v>204</v>
       </c>
@@ -9686,14 +9685,14 @@
       <c r="Q107" s="130"/>
     </row>
     <row r="108" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="170" t="s">
+      <c r="A108" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="171"/>
-      <c r="C108" s="171"/>
-      <c r="D108" s="171"/>
-      <c r="E108" s="171"/>
-      <c r="F108" s="172"/>
+      <c r="B108" s="173"/>
+      <c r="C108" s="173"/>
+      <c r="D108" s="173"/>
+      <c r="E108" s="173"/>
+      <c r="F108" s="174"/>
       <c r="G108" s="132">
         <f t="shared" ref="G108:N108" si="3">SUM(G13:G107)</f>
         <v>1608424.6799999995</v>
@@ -9772,11 +9771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9792,34 +9790,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -9835,19 +9833,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -9946,14 +9944,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -9963,13 +9961,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -10077,7 +10075,7 @@
       <c r="L14" s="130"/>
       <c r="M14" s="130"/>
     </row>
-    <row r="15" spans="1:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="118">
         <v>3</v>
       </c>
@@ -10113,7 +10111,7 @@
       </c>
       <c r="M15" s="130"/>
     </row>
-    <row r="16" spans="1:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120">
         <v>4</v>
       </c>
@@ -10149,7 +10147,7 @@
       </c>
       <c r="M16" s="130"/>
     </row>
-    <row r="17" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="118">
         <v>5</v>
       </c>
@@ -10183,7 +10181,7 @@
       <c r="L17" s="130"/>
       <c r="M17" s="130"/>
     </row>
-    <row r="18" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="118">
         <v>6</v>
       </c>
@@ -10217,7 +10215,7 @@
       <c r="L18" s="130"/>
       <c r="M18" s="130"/>
     </row>
-    <row r="19" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120">
         <v>7</v>
       </c>
@@ -10251,7 +10249,7 @@
       <c r="L19" s="130"/>
       <c r="M19" s="130"/>
     </row>
-    <row r="20" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="118">
         <v>8</v>
       </c>
@@ -10287,7 +10285,7 @@
       </c>
       <c r="M20" s="130"/>
     </row>
-    <row r="21" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="118">
         <v>9</v>
       </c>
@@ -10323,7 +10321,7 @@
       </c>
       <c r="M21" s="130"/>
     </row>
-    <row r="22" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120">
         <v>10</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="118">
         <v>11</v>
       </c>
@@ -10396,7 +10394,7 @@
       <c r="L23" s="130"/>
       <c r="M23" s="130"/>
     </row>
-    <row r="24" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="118">
         <v>12</v>
       </c>
@@ -10430,7 +10428,7 @@
       <c r="L24" s="130"/>
       <c r="M24" s="130"/>
     </row>
-    <row r="25" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120">
         <v>13</v>
       </c>
@@ -10464,7 +10462,7 @@
       <c r="L25" s="130"/>
       <c r="M25" s="130"/>
     </row>
-    <row r="26" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="118">
         <v>14</v>
       </c>
@@ -10500,7 +10498,7 @@
       </c>
       <c r="M26" s="130"/>
     </row>
-    <row r="27" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="118">
         <v>15</v>
       </c>
@@ -10536,7 +10534,7 @@
       </c>
       <c r="M27" s="130"/>
     </row>
-    <row r="28" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="120">
         <v>16</v>
       </c>
@@ -10572,7 +10570,7 @@
       </c>
       <c r="M28" s="130"/>
     </row>
-    <row r="29" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="118">
         <v>17</v>
       </c>
@@ -10608,7 +10606,7 @@
       </c>
       <c r="M29" s="130"/>
     </row>
-    <row r="30" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="118">
         <v>18</v>
       </c>
@@ -10644,7 +10642,7 @@
       </c>
       <c r="M30" s="130"/>
     </row>
-    <row r="31" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120">
         <v>19</v>
       </c>
@@ -10680,7 +10678,7 @@
       </c>
       <c r="M31" s="130"/>
     </row>
-    <row r="32" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="118">
         <v>20</v>
       </c>
@@ -10716,7 +10714,7 @@
       </c>
       <c r="M32" s="130"/>
     </row>
-    <row r="33" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="118">
         <v>21</v>
       </c>
@@ -10750,7 +10748,7 @@
       <c r="L33" s="130"/>
       <c r="M33" s="130"/>
     </row>
-    <row r="34" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120">
         <v>22</v>
       </c>
@@ -10786,7 +10784,7 @@
       </c>
       <c r="M34" s="130"/>
     </row>
-    <row r="35" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="118">
         <v>23</v>
       </c>
@@ -10822,7 +10820,7 @@
       </c>
       <c r="M35" s="130"/>
     </row>
-    <row r="36" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="118">
         <v>24</v>
       </c>
@@ -10861,7 +10859,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="120">
         <v>25</v>
       </c>
@@ -10895,7 +10893,7 @@
       <c r="L37" s="130"/>
       <c r="M37" s="130"/>
     </row>
-    <row r="38" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="118">
         <v>26</v>
       </c>
@@ -10934,7 +10932,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="118">
         <v>27</v>
       </c>
@@ -10968,7 +10966,7 @@
       <c r="L39" s="130"/>
       <c r="M39" s="130"/>
     </row>
-    <row r="40" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120">
         <v>28</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="118">
         <v>29</v>
       </c>
@@ -11046,7 +11044,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="118">
         <v>30</v>
       </c>
@@ -11082,7 +11080,7 @@
       </c>
       <c r="M42" s="130"/>
     </row>
-    <row r="43" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120">
         <v>31</v>
       </c>
@@ -11118,7 +11116,7 @@
       </c>
       <c r="M43" s="130"/>
     </row>
-    <row r="44" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="118">
         <v>32</v>
       </c>
@@ -11154,7 +11152,7 @@
       </c>
       <c r="M44" s="130"/>
     </row>
-    <row r="45" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="118">
         <v>33</v>
       </c>
@@ -11190,7 +11188,7 @@
       </c>
       <c r="M45" s="130"/>
     </row>
-    <row r="46" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="120">
         <v>34</v>
       </c>
@@ -11224,7 +11222,7 @@
       <c r="L46" s="130"/>
       <c r="M46" s="130"/>
     </row>
-    <row r="47" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="118">
         <v>35</v>
       </c>
@@ -11260,7 +11258,7 @@
       </c>
       <c r="M47" s="130"/>
     </row>
-    <row r="48" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="118">
         <v>36</v>
       </c>
@@ -11299,7 +11297,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="120">
         <v>37</v>
       </c>
@@ -11335,7 +11333,7 @@
       </c>
       <c r="M49" s="130"/>
     </row>
-    <row r="50" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="118">
         <v>38</v>
       </c>
@@ -11371,7 +11369,7 @@
       </c>
       <c r="M50" s="130"/>
     </row>
-    <row r="51" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="118">
         <v>39</v>
       </c>
@@ -11407,7 +11405,7 @@
       </c>
       <c r="M51" s="130"/>
     </row>
-    <row r="52" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="120">
         <v>40</v>
       </c>
@@ -11443,7 +11441,7 @@
       </c>
       <c r="M52" s="130"/>
     </row>
-    <row r="53" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="118">
         <v>41</v>
       </c>
@@ -11481,7 +11479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="118">
         <v>42</v>
       </c>
@@ -11587,7 +11585,7 @@
       <c r="L56" s="130"/>
       <c r="M56" s="130"/>
     </row>
-    <row r="57" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="118">
         <v>45</v>
       </c>
@@ -11625,7 +11623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="120">
         <v>46</v>
       </c>
@@ -11664,7 +11662,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="118">
         <v>47</v>
       </c>
@@ -11700,7 +11698,7 @@
       </c>
       <c r="M59" s="130"/>
     </row>
-    <row r="60" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="118">
         <v>48</v>
       </c>
@@ -11736,7 +11734,7 @@
       </c>
       <c r="M60" s="130"/>
     </row>
-    <row r="61" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="120">
         <v>49</v>
       </c>
@@ -11772,7 +11770,7 @@
       </c>
       <c r="M61" s="130"/>
     </row>
-    <row r="62" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="118">
         <v>50</v>
       </c>
@@ -11808,7 +11806,7 @@
       </c>
       <c r="M62" s="130"/>
     </row>
-    <row r="63" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="118">
         <v>51</v>
       </c>
@@ -11844,7 +11842,7 @@
       </c>
       <c r="M63" s="130"/>
     </row>
-    <row r="64" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="120">
         <v>52</v>
       </c>
@@ -11880,7 +11878,7 @@
       </c>
       <c r="M64" s="130"/>
     </row>
-    <row r="65" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="118">
         <v>53</v>
       </c>
@@ -11914,7 +11912,7 @@
       </c>
       <c r="M65" s="130"/>
     </row>
-    <row r="66" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="118">
         <v>54</v>
       </c>
@@ -11953,7 +11951,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="120">
         <v>55</v>
       </c>
@@ -11989,7 +11987,7 @@
       </c>
       <c r="M67" s="130"/>
     </row>
-    <row r="68" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="118">
         <v>56</v>
       </c>
@@ -12025,7 +12023,7 @@
       </c>
       <c r="M68" s="130"/>
     </row>
-    <row r="69" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="118">
         <v>57</v>
       </c>
@@ -12061,7 +12059,7 @@
       </c>
       <c r="M69" s="130"/>
     </row>
-    <row r="70" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="120">
         <v>58</v>
       </c>
@@ -12097,7 +12095,7 @@
       </c>
       <c r="M70" s="130"/>
     </row>
-    <row r="71" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="118">
         <v>59</v>
       </c>
@@ -12133,7 +12131,7 @@
       </c>
       <c r="M71" s="130"/>
     </row>
-    <row r="72" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="118">
         <v>60</v>
       </c>
@@ -12169,7 +12167,7 @@
       </c>
       <c r="M72" s="130"/>
     </row>
-    <row r="73" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="120">
         <v>61</v>
       </c>
@@ -12205,7 +12203,7 @@
       </c>
       <c r="M73" s="130"/>
     </row>
-    <row r="74" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="118">
         <v>62</v>
       </c>
@@ -12239,7 +12237,7 @@
       <c r="L74" s="130"/>
       <c r="M74" s="130"/>
     </row>
-    <row r="75" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="118">
         <v>63</v>
       </c>
@@ -12273,7 +12271,7 @@
       <c r="L75" s="130"/>
       <c r="M75" s="130"/>
     </row>
-    <row r="76" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="120">
         <v>64</v>
       </c>
@@ -12307,7 +12305,7 @@
       <c r="L76" s="130"/>
       <c r="M76" s="130"/>
     </row>
-    <row r="77" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="118">
         <v>65</v>
       </c>
@@ -12341,7 +12339,7 @@
       <c r="L77" s="130"/>
       <c r="M77" s="130"/>
     </row>
-    <row r="78" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="118">
         <v>66</v>
       </c>
@@ -12375,7 +12373,7 @@
       <c r="L78" s="130"/>
       <c r="M78" s="130"/>
     </row>
-    <row r="79" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120">
         <v>67</v>
       </c>
@@ -12409,7 +12407,7 @@
       <c r="L79" s="130"/>
       <c r="M79" s="130"/>
     </row>
-    <row r="80" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="118">
         <v>68</v>
       </c>
@@ -12443,7 +12441,7 @@
       <c r="L80" s="130"/>
       <c r="M80" s="130"/>
     </row>
-    <row r="81" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="118">
         <v>69</v>
       </c>
@@ -12477,7 +12475,7 @@
       <c r="L81" s="130"/>
       <c r="M81" s="130"/>
     </row>
-    <row r="82" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="120">
         <v>70</v>
       </c>
@@ -12509,7 +12507,7 @@
       <c r="L82" s="130"/>
       <c r="M82" s="130"/>
     </row>
-    <row r="83" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="118">
         <v>71</v>
       </c>
@@ -12545,7 +12543,7 @@
       </c>
       <c r="M83" s="130"/>
     </row>
-    <row r="84" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="118">
         <v>72</v>
       </c>
@@ -12581,7 +12579,7 @@
       </c>
       <c r="M84" s="130"/>
     </row>
-    <row r="85" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120">
         <v>73</v>
       </c>
@@ -12619,7 +12617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="118">
         <v>74</v>
       </c>
@@ -12657,7 +12655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="118">
         <v>75</v>
       </c>
@@ -12693,7 +12691,7 @@
       </c>
       <c r="M87" s="130"/>
     </row>
-    <row r="88" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="120">
         <v>76</v>
       </c>
@@ -12732,7 +12730,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="118">
         <v>77</v>
       </c>
@@ -12804,7 +12802,7 @@
       <c r="L90" s="130"/>
       <c r="M90" s="130"/>
     </row>
-    <row r="91" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="120">
         <v>79</v>
       </c>
@@ -12840,7 +12838,7 @@
       </c>
       <c r="M91" s="130"/>
     </row>
-    <row r="92" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="118">
         <v>80</v>
       </c>
@@ -12878,7 +12876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="118">
         <v>81</v>
       </c>
@@ -12950,7 +12948,7 @@
       <c r="L94" s="130"/>
       <c r="M94" s="130"/>
     </row>
-    <row r="95" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="118">
         <v>83</v>
       </c>
@@ -12988,7 +12986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="118">
         <v>84</v>
       </c>
@@ -13026,7 +13024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="120">
         <v>85</v>
       </c>
@@ -13064,7 +13062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="118">
         <v>86</v>
       </c>
@@ -13102,7 +13100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="120">
         <v>88</v>
       </c>
@@ -13140,15 +13138,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="170" t="s">
+    <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="171"/>
-      <c r="C100" s="171"/>
-      <c r="D100" s="171"/>
-      <c r="E100" s="171"/>
-      <c r="F100" s="172"/>
+      <c r="B100" s="173"/>
+      <c r="C100" s="173"/>
+      <c r="D100" s="173"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="174"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>1581699.3999999994</v>
@@ -13167,7 +13165,7 @@
       </c>
       <c r="K100" s="117"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
         <v>235</v>
       </c>
@@ -13179,18 +13177,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E12:M101">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 10555-14 por la Planilla de Viaticos según MEMO.N° 1973-2014-GRAP/07.DR.ADMYF. - Jesus Alberto Sanchez Brioso"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 1500 por la Planilla de Viaticos según MEMO N° 358-GRAP/07.DR.ADMYF. - Juan Pablo Palomino Ustua"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 2457-14 por la Planilla de Viaticos según MEMO.N° 578-2014-GRAP/07.DR.ADMYF. - Marco Antonio Aragon Zinanyuca"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 2573-14 por la Planilla de Viaticos según MEMO.N° 558-2014-GRAP/07.DR.ADMYF. - Marciano Palomino Buleje"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 9800-14 por la Planilla de Viaticos según MEMO.N° 1886-2014-GRAP/07.DR.ADMYF. - Santos Enrique Choque Florez"/>
-        <filter val="Rendicion al Habilito Otorgado según C/P 1371-2011 - Miguel Angel Valenzuela Rodriguez"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E12:M101"/>
   <mergeCells count="7">
     <mergeCell ref="A100:F100"/>
     <mergeCell ref="A1:K1"/>
@@ -13209,8 +13196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13230,34 +13217,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13273,19 +13260,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -13301,10 +13288,10 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="201"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
@@ -13320,49 +13307,49 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="202"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="178" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
     </row>
     <row r="8" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="202"/>
-      <c r="C8" s="200" t="s">
+      <c r="B8" s="180"/>
+      <c r="C8" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="178" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
     </row>
     <row r="9" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="201" t="s">
+      <c r="A9" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="200" t="s">
+      <c r="B9" s="179"/>
+      <c r="C9" s="151" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -13392,30 +13379,30 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162" t="s">
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -13425,9 +13412,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="160"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="158"/>
       <c r="H12" s="2" t="s">
         <v>208</v>
       </c>
@@ -13440,7 +13427,7 @@
       <c r="K12" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="203" t="s">
+      <c r="L12" s="152" t="s">
         <v>247</v>
       </c>
       <c r="M12" s="147" t="s">
@@ -13699,14 +13686,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="172"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
       <c r="G19" s="139">
         <f>SUM(G13:G18)</f>
         <v>25507.279999999999</v>
@@ -13780,42 +13767,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13835,23 +13822,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="153" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -13974,38 +13961,38 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162" t="s">
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="166" t="s">
+      <c r="H11" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="168"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="156"/>
       <c r="O11" s="126" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -14015,9 +14002,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="160"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="158"/>
       <c r="H12" s="2" t="s">
         <v>204</v>
       </c>
@@ -14092,14 +14079,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
       <c r="G14" s="132">
         <f t="shared" ref="G14:N14" si="0">SUM(G13:G13)</f>
         <v>1218</v>
@@ -14180,7 +14167,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -14197,34 +14184,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -14240,19 +14227,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -14351,14 +14338,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -14368,13 +14355,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -15987,14 +15974,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="170" t="s">
+      <c r="A100" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="171"/>
-      <c r="C100" s="171"/>
-      <c r="D100" s="171"/>
-      <c r="E100" s="171"/>
-      <c r="F100" s="172"/>
+      <c r="B100" s="173"/>
+      <c r="C100" s="173"/>
+      <c r="D100" s="173"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="174"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -16139,34 +16126,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -16182,19 +16169,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -16293,14 +16280,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -16310,13 +16297,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -17929,14 +17916,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="170" t="s">
+      <c r="A100" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="171"/>
-      <c r="C100" s="171"/>
-      <c r="D100" s="171"/>
-      <c r="E100" s="171"/>
-      <c r="F100" s="172"/>
+      <c r="B100" s="173"/>
+      <c r="C100" s="173"/>
+      <c r="D100" s="173"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="174"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -18089,21 +18076,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -18121,21 +18108,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -18245,56 +18232,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="178" t="s">
+      <c r="G10" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="178" t="s">
+      <c r="H10" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="178" t="s">
+      <c r="J10" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="178" t="s">
+      <c r="K10" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="178" t="s">
+      <c r="L10" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="184" t="s">
+      <c r="M10" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="185"/>
+      <c r="N10" s="187"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
       <c r="I11" s="183"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -18429,31 +18416,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="186" t="s">
+      <c r="B18" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="188"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="190"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="189"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="193"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="198" t="s">
+      <c r="M20" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="198"/>
+      <c r="N20" s="181"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -18475,21 +18462,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -18507,21 +18494,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -18631,56 +18618,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="180" t="s">
+      <c r="D31" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="178" t="s">
+      <c r="E31" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="178" t="s">
+      <c r="F31" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="178" t="s">
+      <c r="G31" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="178" t="s">
+      <c r="H31" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="178" t="s">
+      <c r="J31" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="178" t="s">
+      <c r="K31" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="178" t="s">
+      <c r="L31" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="184" t="s">
+      <c r="M31" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="185"/>
+      <c r="N31" s="187"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="177"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
       <c r="I32" s="183"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -18774,31 +18761,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="192" t="s">
+      <c r="B38" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="194"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="200"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="195"/>
-      <c r="K38" s="196"/>
-      <c r="L38" s="196"/>
-      <c r="M38" s="196"/>
-      <c r="N38" s="197"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="202"/>
+      <c r="L38" s="202"/>
+      <c r="M38" s="202"/>
+      <c r="N38" s="203"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="198" t="s">
+      <c r="M40" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="198"/>
+      <c r="N40" s="181"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -18820,21 +18807,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="169" t="s">
+      <c r="B43" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="169"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="169"/>
-      <c r="N43" s="169"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -18852,21 +18839,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
-      <c r="I45" s="169"/>
-      <c r="J45" s="169"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="169"/>
-      <c r="M45" s="169"/>
-      <c r="N45" s="169"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -18976,56 +18963,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="178" t="s">
+      <c r="C51" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="178" t="s">
+      <c r="E51" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="178" t="s">
+      <c r="F51" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="178" t="s">
+      <c r="G51" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="178" t="s">
+      <c r="H51" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="178" t="s">
+      <c r="J51" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="178" t="s">
+      <c r="K51" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="178" t="s">
+      <c r="L51" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="184" t="s">
+      <c r="M51" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="185"/>
+      <c r="N51" s="187"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="177"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="179"/>
-      <c r="H52" s="179"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="185"/>
       <c r="I52" s="183"/>
-      <c r="J52" s="179"/>
-      <c r="K52" s="179"/>
-      <c r="L52" s="179"/>
+      <c r="J52" s="185"/>
+      <c r="K52" s="185"/>
+      <c r="L52" s="185"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -19102,31 +19089,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="192" t="s">
+      <c r="B57" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="193"/>
-      <c r="F57" s="193"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="194"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="200"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="195"/>
-      <c r="K57" s="196"/>
-      <c r="L57" s="196"/>
-      <c r="M57" s="196"/>
-      <c r="N57" s="197"/>
+      <c r="J57" s="201"/>
+      <c r="K57" s="202"/>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="203"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="198" t="s">
+      <c r="M59" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="198"/>
+      <c r="N59" s="181"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -19156,21 +19143,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="169" t="s">
+      <c r="B64" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="169"/>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="169"/>
-      <c r="N64" s="169"/>
+      <c r="C64" s="153"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="153"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="153"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -19188,21 +19175,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="169" t="s">
+      <c r="B66" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="169"/>
-      <c r="D66" s="169"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="169"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="169"/>
-      <c r="I66" s="169"/>
-      <c r="J66" s="169"/>
-      <c r="K66" s="169"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="169"/>
-      <c r="N66" s="169"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -19312,56 +19299,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="176" t="s">
+      <c r="B72" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="178" t="s">
+      <c r="C72" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="180" t="s">
+      <c r="D72" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="178" t="s">
+      <c r="E72" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="178" t="s">
+      <c r="F72" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="178" t="s">
+      <c r="G72" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="178" t="s">
+      <c r="H72" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="178" t="s">
+      <c r="J72" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="178" t="s">
+      <c r="K72" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="178" t="s">
+      <c r="L72" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="184" t="s">
+      <c r="M72" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="185"/>
+      <c r="N72" s="187"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="177"/>
-      <c r="C73" s="179"/>
-      <c r="D73" s="181"/>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="179"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="185"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="185"/>
+      <c r="F73" s="185"/>
+      <c r="G73" s="185"/>
+      <c r="H73" s="185"/>
       <c r="I73" s="183"/>
-      <c r="J73" s="179"/>
-      <c r="K73" s="179"/>
-      <c r="L73" s="179"/>
+      <c r="J73" s="185"/>
+      <c r="K73" s="185"/>
+      <c r="L73" s="185"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -19421,31 +19408,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="186" t="s">
+      <c r="B77" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="187"/>
-      <c r="D77" s="187"/>
-      <c r="E77" s="187"/>
-      <c r="F77" s="187"/>
-      <c r="G77" s="187"/>
-      <c r="H77" s="188"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="189"/>
+      <c r="E77" s="189"/>
+      <c r="F77" s="189"/>
+      <c r="G77" s="189"/>
+      <c r="H77" s="190"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="189"/>
-      <c r="K77" s="190"/>
-      <c r="L77" s="190"/>
-      <c r="M77" s="190"/>
-      <c r="N77" s="191"/>
+      <c r="J77" s="191"/>
+      <c r="K77" s="192"/>
+      <c r="L77" s="192"/>
+      <c r="M77" s="192"/>
+      <c r="N77" s="193"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="198" t="s">
+      <c r="M79" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="198"/>
+      <c r="N79" s="181"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -19490,12 +19477,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -19512,52 +19539,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -19598,21 +19585,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -19722,56 +19709,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="178" t="s">
+      <c r="C9" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="178" t="s">
+      <c r="G9" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="178" t="s">
+      <c r="H9" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="178" t="s">
+      <c r="J9" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="178" t="s">
+      <c r="K9" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="178" t="s">
+      <c r="L9" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="184" t="s">
+      <c r="M9" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="185"/>
+      <c r="N9" s="187"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="177"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
       <c r="I10" s="183"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -20200,44 +20187,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="188"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="190"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="189"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="191"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="192"/>
+      <c r="N31" s="193"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="169"/>
-      <c r="N35" s="169"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -20347,56 +20334,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="180" t="s">
+      <c r="D42" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="178" t="s">
+      <c r="E42" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="178" t="s">
+      <c r="F42" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="178" t="s">
+      <c r="G42" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="178" t="s">
+      <c r="H42" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="178" t="s">
+      <c r="J42" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="178" t="s">
+      <c r="K42" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="178" t="s">
+      <c r="L42" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="184" t="s">
+      <c r="M42" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="185"/>
+      <c r="N42" s="187"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="177"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="179"/>
-      <c r="H43" s="179"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
       <c r="I43" s="183"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="179"/>
-      <c r="L43" s="179"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="185"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -20405,24 +20392,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="192" t="s">
+      <c r="B44" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="193"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="194"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="200"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="195"/>
-      <c r="K44" s="196"/>
-      <c r="L44" s="196"/>
-      <c r="M44" s="196"/>
-      <c r="N44" s="197"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="202"/>
+      <c r="N44" s="203"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -20786,44 +20773,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="186" t="s">
+      <c r="B63" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="187"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187"/>
-      <c r="G63" s="187"/>
-      <c r="H63" s="188"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="190"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="189"/>
-      <c r="K63" s="190"/>
-      <c r="L63" s="190"/>
-      <c r="M63" s="190"/>
-      <c r="N63" s="191"/>
+      <c r="J63" s="191"/>
+      <c r="K63" s="192"/>
+      <c r="L63" s="192"/>
+      <c r="M63" s="192"/>
+      <c r="N63" s="193"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="169" t="s">
+      <c r="B67" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="169"/>
-      <c r="H67" s="169"/>
-      <c r="I67" s="169"/>
-      <c r="J67" s="169"/>
-      <c r="K67" s="169"/>
-      <c r="L67" s="169"/>
-      <c r="M67" s="169"/>
-      <c r="N67" s="169"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="153"/>
+      <c r="N67" s="153"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -20933,56 +20920,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="176" t="s">
+      <c r="B74" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="178" t="s">
+      <c r="C74" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="180" t="s">
+      <c r="D74" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="178" t="s">
+      <c r="E74" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="178" t="s">
+      <c r="F74" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="178" t="s">
+      <c r="G74" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="178" t="s">
+      <c r="H74" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I74" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="178" t="s">
+      <c r="J74" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="178" t="s">
+      <c r="K74" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="178" t="s">
+      <c r="L74" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="184" t="s">
+      <c r="M74" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="185"/>
+      <c r="N74" s="187"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="177"/>
-      <c r="C75" s="179"/>
-      <c r="D75" s="181"/>
-      <c r="E75" s="179"/>
-      <c r="F75" s="179"/>
-      <c r="G75" s="179"/>
-      <c r="H75" s="179"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="185"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="185"/>
+      <c r="F75" s="185"/>
+      <c r="G75" s="185"/>
+      <c r="H75" s="185"/>
       <c r="I75" s="183"/>
-      <c r="J75" s="179"/>
-      <c r="K75" s="179"/>
-      <c r="L75" s="179"/>
+      <c r="J75" s="185"/>
+      <c r="K75" s="185"/>
+      <c r="L75" s="185"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -20991,24 +20978,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="192" t="s">
+      <c r="B76" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="193"/>
-      <c r="D76" s="193"/>
-      <c r="E76" s="193"/>
-      <c r="F76" s="193"/>
-      <c r="G76" s="193"/>
-      <c r="H76" s="194"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="200"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="195"/>
-      <c r="K76" s="196"/>
-      <c r="L76" s="196"/>
-      <c r="M76" s="196"/>
-      <c r="N76" s="197"/>
+      <c r="J76" s="201"/>
+      <c r="K76" s="202"/>
+      <c r="L76" s="202"/>
+      <c r="M76" s="202"/>
+      <c r="N76" s="203"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -21451,44 +21438,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="186" t="s">
+      <c r="B97" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="187"/>
-      <c r="D97" s="187"/>
-      <c r="E97" s="187"/>
-      <c r="F97" s="187"/>
-      <c r="G97" s="187"/>
-      <c r="H97" s="188"/>
+      <c r="C97" s="189"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="189"/>
+      <c r="F97" s="189"/>
+      <c r="G97" s="189"/>
+      <c r="H97" s="190"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="189"/>
-      <c r="K97" s="190"/>
-      <c r="L97" s="190"/>
-      <c r="M97" s="190"/>
-      <c r="N97" s="191"/>
+      <c r="J97" s="191"/>
+      <c r="K97" s="192"/>
+      <c r="L97" s="192"/>
+      <c r="M97" s="192"/>
+      <c r="N97" s="193"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="169" t="s">
+      <c r="B101" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="169"/>
-      <c r="D101" s="169"/>
-      <c r="E101" s="169"/>
-      <c r="F101" s="169"/>
-      <c r="G101" s="169"/>
-      <c r="H101" s="169"/>
-      <c r="I101" s="169"/>
-      <c r="J101" s="169"/>
-      <c r="K101" s="169"/>
-      <c r="L101" s="169"/>
-      <c r="M101" s="169"/>
-      <c r="N101" s="169"/>
+      <c r="C101" s="153"/>
+      <c r="D101" s="153"/>
+      <c r="E101" s="153"/>
+      <c r="F101" s="153"/>
+      <c r="G101" s="153"/>
+      <c r="H101" s="153"/>
+      <c r="I101" s="153"/>
+      <c r="J101" s="153"/>
+      <c r="K101" s="153"/>
+      <c r="L101" s="153"/>
+      <c r="M101" s="153"/>
+      <c r="N101" s="153"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -21598,56 +21585,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="176" t="s">
+      <c r="B108" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="178" t="s">
+      <c r="C108" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="180" t="s">
+      <c r="D108" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="178" t="s">
+      <c r="E108" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="178" t="s">
+      <c r="F108" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="178" t="s">
+      <c r="G108" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="178" t="s">
+      <c r="H108" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I108" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="178" t="s">
+      <c r="J108" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="178" t="s">
+      <c r="K108" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="178" t="s">
+      <c r="L108" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="184" t="s">
+      <c r="M108" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="185"/>
+      <c r="N108" s="187"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="177"/>
-      <c r="C109" s="179"/>
-      <c r="D109" s="181"/>
-      <c r="E109" s="179"/>
-      <c r="F109" s="179"/>
-      <c r="G109" s="179"/>
-      <c r="H109" s="179"/>
+      <c r="B109" s="195"/>
+      <c r="C109" s="185"/>
+      <c r="D109" s="197"/>
+      <c r="E109" s="185"/>
+      <c r="F109" s="185"/>
+      <c r="G109" s="185"/>
+      <c r="H109" s="185"/>
       <c r="I109" s="183"/>
-      <c r="J109" s="179"/>
-      <c r="K109" s="179"/>
-      <c r="L109" s="179"/>
+      <c r="J109" s="185"/>
+      <c r="K109" s="185"/>
+      <c r="L109" s="185"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -21656,24 +21643,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="192" t="s">
+      <c r="B110" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="193"/>
-      <c r="D110" s="193"/>
-      <c r="E110" s="193"/>
-      <c r="F110" s="193"/>
-      <c r="G110" s="193"/>
-      <c r="H110" s="194"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="199"/>
+      <c r="F110" s="199"/>
+      <c r="G110" s="199"/>
+      <c r="H110" s="200"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="195"/>
-      <c r="K110" s="196"/>
-      <c r="L110" s="196"/>
-      <c r="M110" s="196"/>
-      <c r="N110" s="197"/>
+      <c r="J110" s="201"/>
+      <c r="K110" s="202"/>
+      <c r="L110" s="202"/>
+      <c r="M110" s="202"/>
+      <c r="N110" s="203"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -22043,44 +22030,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="186" t="s">
+      <c r="B130" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="187"/>
-      <c r="D130" s="187"/>
-      <c r="E130" s="187"/>
-      <c r="F130" s="187"/>
-      <c r="G130" s="187"/>
-      <c r="H130" s="188"/>
+      <c r="C130" s="189"/>
+      <c r="D130" s="189"/>
+      <c r="E130" s="189"/>
+      <c r="F130" s="189"/>
+      <c r="G130" s="189"/>
+      <c r="H130" s="190"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="189"/>
-      <c r="K130" s="190"/>
-      <c r="L130" s="190"/>
-      <c r="M130" s="190"/>
-      <c r="N130" s="191"/>
+      <c r="J130" s="191"/>
+      <c r="K130" s="192"/>
+      <c r="L130" s="192"/>
+      <c r="M130" s="192"/>
+      <c r="N130" s="193"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="169" t="s">
+      <c r="B134" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="169"/>
-      <c r="D134" s="169"/>
-      <c r="E134" s="169"/>
-      <c r="F134" s="169"/>
-      <c r="G134" s="169"/>
-      <c r="H134" s="169"/>
-      <c r="I134" s="169"/>
-      <c r="J134" s="169"/>
-      <c r="K134" s="169"/>
-      <c r="L134" s="169"/>
-      <c r="M134" s="169"/>
-      <c r="N134" s="169"/>
+      <c r="C134" s="153"/>
+      <c r="D134" s="153"/>
+      <c r="E134" s="153"/>
+      <c r="F134" s="153"/>
+      <c r="G134" s="153"/>
+      <c r="H134" s="153"/>
+      <c r="I134" s="153"/>
+      <c r="J134" s="153"/>
+      <c r="K134" s="153"/>
+      <c r="L134" s="153"/>
+      <c r="M134" s="153"/>
+      <c r="N134" s="153"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -22190,56 +22177,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="176" t="s">
+      <c r="B141" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="178" t="s">
+      <c r="C141" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="180" t="s">
+      <c r="D141" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="178" t="s">
+      <c r="E141" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="178" t="s">
+      <c r="F141" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="178" t="s">
+      <c r="G141" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="178" t="s">
+      <c r="H141" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I141" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="178" t="s">
+      <c r="J141" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="178" t="s">
+      <c r="K141" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="178" t="s">
+      <c r="L141" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="184" t="s">
+      <c r="M141" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="185"/>
+      <c r="N141" s="187"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="177"/>
-      <c r="C142" s="179"/>
-      <c r="D142" s="181"/>
-      <c r="E142" s="179"/>
-      <c r="F142" s="179"/>
-      <c r="G142" s="179"/>
-      <c r="H142" s="179"/>
+      <c r="B142" s="195"/>
+      <c r="C142" s="185"/>
+      <c r="D142" s="197"/>
+      <c r="E142" s="185"/>
+      <c r="F142" s="185"/>
+      <c r="G142" s="185"/>
+      <c r="H142" s="185"/>
       <c r="I142" s="183"/>
-      <c r="J142" s="179"/>
-      <c r="K142" s="179"/>
-      <c r="L142" s="179"/>
+      <c r="J142" s="185"/>
+      <c r="K142" s="185"/>
+      <c r="L142" s="185"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -22248,24 +22235,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="192" t="s">
+      <c r="B143" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="193"/>
-      <c r="D143" s="193"/>
-      <c r="E143" s="193"/>
-      <c r="F143" s="193"/>
-      <c r="G143" s="193"/>
-      <c r="H143" s="194"/>
+      <c r="C143" s="199"/>
+      <c r="D143" s="199"/>
+      <c r="E143" s="199"/>
+      <c r="F143" s="199"/>
+      <c r="G143" s="199"/>
+      <c r="H143" s="200"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="195"/>
-      <c r="K143" s="196"/>
-      <c r="L143" s="196"/>
-      <c r="M143" s="196"/>
-      <c r="N143" s="197"/>
+      <c r="J143" s="201"/>
+      <c r="K143" s="202"/>
+      <c r="L143" s="202"/>
+      <c r="M143" s="202"/>
+      <c r="N143" s="203"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -22591,44 +22578,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="186" t="s">
+      <c r="B161" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="187"/>
-      <c r="D161" s="187"/>
-      <c r="E161" s="187"/>
-      <c r="F161" s="187"/>
-      <c r="G161" s="187"/>
-      <c r="H161" s="188"/>
+      <c r="C161" s="189"/>
+      <c r="D161" s="189"/>
+      <c r="E161" s="189"/>
+      <c r="F161" s="189"/>
+      <c r="G161" s="189"/>
+      <c r="H161" s="190"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="189"/>
-      <c r="K161" s="190"/>
-      <c r="L161" s="190"/>
-      <c r="M161" s="190"/>
-      <c r="N161" s="191"/>
+      <c r="J161" s="191"/>
+      <c r="K161" s="192"/>
+      <c r="L161" s="192"/>
+      <c r="M161" s="192"/>
+      <c r="N161" s="193"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="169" t="s">
+      <c r="B165" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="169"/>
-      <c r="D165" s="169"/>
-      <c r="E165" s="169"/>
-      <c r="F165" s="169"/>
-      <c r="G165" s="169"/>
-      <c r="H165" s="169"/>
-      <c r="I165" s="169"/>
-      <c r="J165" s="169"/>
-      <c r="K165" s="169"/>
-      <c r="L165" s="169"/>
-      <c r="M165" s="169"/>
-      <c r="N165" s="169"/>
+      <c r="C165" s="153"/>
+      <c r="D165" s="153"/>
+      <c r="E165" s="153"/>
+      <c r="F165" s="153"/>
+      <c r="G165" s="153"/>
+      <c r="H165" s="153"/>
+      <c r="I165" s="153"/>
+      <c r="J165" s="153"/>
+      <c r="K165" s="153"/>
+      <c r="L165" s="153"/>
+      <c r="M165" s="153"/>
+      <c r="N165" s="153"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -22738,56 +22725,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="176" t="s">
+      <c r="B172" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="178" t="s">
+      <c r="C172" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="180" t="s">
+      <c r="D172" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="178" t="s">
+      <c r="E172" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="178" t="s">
+      <c r="F172" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="178" t="s">
+      <c r="G172" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="178" t="s">
+      <c r="H172" s="184" t="s">
         <v>11</v>
       </c>
       <c r="I172" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="178" t="s">
+      <c r="J172" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="178" t="s">
+      <c r="K172" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="178" t="s">
+      <c r="L172" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="184" t="s">
+      <c r="M172" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="185"/>
+      <c r="N172" s="187"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="177"/>
-      <c r="C173" s="179"/>
-      <c r="D173" s="181"/>
-      <c r="E173" s="179"/>
-      <c r="F173" s="179"/>
-      <c r="G173" s="179"/>
-      <c r="H173" s="179"/>
+      <c r="B173" s="195"/>
+      <c r="C173" s="185"/>
+      <c r="D173" s="197"/>
+      <c r="E173" s="185"/>
+      <c r="F173" s="185"/>
+      <c r="G173" s="185"/>
+      <c r="H173" s="185"/>
       <c r="I173" s="183"/>
-      <c r="J173" s="179"/>
-      <c r="K173" s="179"/>
-      <c r="L173" s="179"/>
+      <c r="J173" s="185"/>
+      <c r="K173" s="185"/>
+      <c r="L173" s="185"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -22796,24 +22783,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="192" t="s">
+      <c r="B174" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="193"/>
-      <c r="D174" s="193"/>
-      <c r="E174" s="193"/>
-      <c r="F174" s="193"/>
-      <c r="G174" s="193"/>
-      <c r="H174" s="194"/>
+      <c r="C174" s="199"/>
+      <c r="D174" s="199"/>
+      <c r="E174" s="199"/>
+      <c r="F174" s="199"/>
+      <c r="G174" s="199"/>
+      <c r="H174" s="200"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="195"/>
-      <c r="K174" s="196"/>
-      <c r="L174" s="196"/>
-      <c r="M174" s="196"/>
-      <c r="N174" s="197"/>
+      <c r="J174" s="201"/>
+      <c r="K174" s="202"/>
+      <c r="L174" s="202"/>
+      <c r="M174" s="202"/>
+      <c r="N174" s="203"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -22879,31 +22866,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="192" t="s">
+      <c r="B178" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="193"/>
-      <c r="D178" s="193"/>
-      <c r="E178" s="193"/>
-      <c r="F178" s="193"/>
-      <c r="G178" s="193"/>
-      <c r="H178" s="194"/>
+      <c r="C178" s="199"/>
+      <c r="D178" s="199"/>
+      <c r="E178" s="199"/>
+      <c r="F178" s="199"/>
+      <c r="G178" s="199"/>
+      <c r="H178" s="200"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="195"/>
-      <c r="K178" s="196"/>
-      <c r="L178" s="196"/>
-      <c r="M178" s="196"/>
-      <c r="N178" s="197"/>
+      <c r="J178" s="201"/>
+      <c r="K178" s="202"/>
+      <c r="L178" s="202"/>
+      <c r="M178" s="202"/>
+      <c r="N178" s="203"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="198" t="s">
+      <c r="M180" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="198"/>
+      <c r="N180" s="181"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22920,6 +22907,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -22937,90 +23008,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2014.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2014.xlsx
@@ -1380,7 +1380,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,6 +1584,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1981,7 +1988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2427,28 +2434,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2460,14 +2461,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2478,16 +2476,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,28 +2513,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2556,18 +2563,6 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2585,6 +2580,29 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2914,42 +2932,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2969,23 +2987,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -3108,38 +3126,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="166" t="s">
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="157" t="s">
+      <c r="G12" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="154" t="s">
+      <c r="H12" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="157" t="s">
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="165" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="158"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3149,9 +3167,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="158"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="161"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3191,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="158"/>
+      <c r="O13" s="161"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -3744,14 +3762,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="161"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -3784,42 +3802,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
+      <c r="A35" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="163"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="163"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -3942,38 +3960,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="166" t="s">
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="166" t="s">
+      <c r="F43" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="157" t="s">
+      <c r="G43" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="154" t="s">
+      <c r="H43" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="157" t="s">
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="169"/>
+      <c r="O43" s="165" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="158"/>
+      <c r="A44" s="161"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -3983,9 +4001,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="167"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="158"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="161"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -4007,17 +4025,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="158"/>
+      <c r="O44" s="161"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="171"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="156"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -4472,14 +4490,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="159" t="s">
+      <c r="A66" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="160"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="160"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="161"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="159"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -4512,42 +4530,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="162" t="s">
+      <c r="A69" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="162"/>
-      <c r="C69" s="162"/>
-      <c r="D69" s="162"/>
-      <c r="E69" s="162"/>
-      <c r="F69" s="162"/>
-      <c r="G69" s="162"/>
-      <c r="H69" s="162"/>
-      <c r="I69" s="162"/>
-      <c r="J69" s="162"/>
-      <c r="K69" s="162"/>
-      <c r="L69" s="162"/>
-      <c r="M69" s="162"/>
-      <c r="N69" s="162"/>
-      <c r="O69" s="162"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="152"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="152"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="152"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="152"/>
+      <c r="M69" s="152"/>
+      <c r="N69" s="152"/>
+      <c r="O69" s="152"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="163" t="s">
+      <c r="A70" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="163"/>
-      <c r="I70" s="163"/>
-      <c r="J70" s="163"/>
-      <c r="K70" s="163"/>
-      <c r="L70" s="163"/>
-      <c r="M70" s="163"/>
-      <c r="N70" s="163"/>
-      <c r="O70" s="163"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="153"/>
+      <c r="O70" s="153"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -4670,38 +4688,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="164" t="s">
+      <c r="A77" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="165" t="s">
+      <c r="B77" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="166" t="s">
+      <c r="C77" s="162"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="166" t="s">
+      <c r="F77" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="157" t="s">
+      <c r="G77" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="154" t="s">
+      <c r="H77" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="155"/>
-      <c r="J77" s="155"/>
-      <c r="K77" s="155"/>
-      <c r="L77" s="155"/>
-      <c r="M77" s="155"/>
-      <c r="N77" s="156"/>
-      <c r="O77" s="157" t="s">
+      <c r="I77" s="168"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="168"/>
+      <c r="L77" s="168"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="169"/>
+      <c r="O77" s="165" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="158"/>
+      <c r="A78" s="161"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -4711,9 +4729,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="167"/>
-      <c r="F78" s="168"/>
-      <c r="G78" s="158"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="166"/>
+      <c r="G78" s="161"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -4735,17 +4753,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="158"/>
+      <c r="O78" s="161"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="169" t="s">
+      <c r="A79" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="170"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="171"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="155"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="155"/>
+      <c r="F79" s="156"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -5178,14 +5196,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="159" t="s">
+      <c r="A99" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="160"/>
-      <c r="C99" s="160"/>
-      <c r="D99" s="160"/>
-      <c r="E99" s="160"/>
-      <c r="F99" s="161"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="159"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -5271,42 +5289,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="162" t="s">
+      <c r="A105" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="162"/>
-      <c r="C105" s="162"/>
-      <c r="D105" s="162"/>
-      <c r="E105" s="162"/>
-      <c r="F105" s="162"/>
-      <c r="G105" s="162"/>
-      <c r="H105" s="162"/>
-      <c r="I105" s="162"/>
-      <c r="J105" s="162"/>
-      <c r="K105" s="162"/>
-      <c r="L105" s="162"/>
-      <c r="M105" s="162"/>
-      <c r="N105" s="162"/>
-      <c r="O105" s="162"/>
+      <c r="B105" s="152"/>
+      <c r="C105" s="152"/>
+      <c r="D105" s="152"/>
+      <c r="E105" s="152"/>
+      <c r="F105" s="152"/>
+      <c r="G105" s="152"/>
+      <c r="H105" s="152"/>
+      <c r="I105" s="152"/>
+      <c r="J105" s="152"/>
+      <c r="K105" s="152"/>
+      <c r="L105" s="152"/>
+      <c r="M105" s="152"/>
+      <c r="N105" s="152"/>
+      <c r="O105" s="152"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="163" t="s">
+      <c r="A106" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="163"/>
-      <c r="C106" s="163"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="163"/>
-      <c r="F106" s="163"/>
-      <c r="G106" s="163"/>
-      <c r="H106" s="163"/>
-      <c r="I106" s="163"/>
-      <c r="J106" s="163"/>
-      <c r="K106" s="163"/>
-      <c r="L106" s="163"/>
-      <c r="M106" s="163"/>
-      <c r="N106" s="163"/>
-      <c r="O106" s="163"/>
+      <c r="B106" s="153"/>
+      <c r="C106" s="153"/>
+      <c r="D106" s="153"/>
+      <c r="E106" s="153"/>
+      <c r="F106" s="153"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="153"/>
+      <c r="I106" s="153"/>
+      <c r="J106" s="153"/>
+      <c r="K106" s="153"/>
+      <c r="L106" s="153"/>
+      <c r="M106" s="153"/>
+      <c r="N106" s="153"/>
+      <c r="O106" s="153"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -5326,23 +5344,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="153" t="s">
+      <c r="A108" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="153"/>
-      <c r="C108" s="153"/>
-      <c r="D108" s="153"/>
-      <c r="E108" s="153"/>
-      <c r="F108" s="153"/>
-      <c r="G108" s="153"/>
-      <c r="H108" s="153"/>
-      <c r="I108" s="153"/>
-      <c r="J108" s="153"/>
-      <c r="K108" s="153"/>
-      <c r="L108" s="153"/>
-      <c r="M108" s="153"/>
-      <c r="N108" s="153"/>
-      <c r="O108" s="153"/>
+      <c r="B108" s="170"/>
+      <c r="C108" s="170"/>
+      <c r="D108" s="170"/>
+      <c r="E108" s="170"/>
+      <c r="F108" s="170"/>
+      <c r="G108" s="170"/>
+      <c r="H108" s="170"/>
+      <c r="I108" s="170"/>
+      <c r="J108" s="170"/>
+      <c r="K108" s="170"/>
+      <c r="L108" s="170"/>
+      <c r="M108" s="170"/>
+      <c r="N108" s="170"/>
+      <c r="O108" s="170"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -5465,38 +5483,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="164" t="s">
+      <c r="A115" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="165" t="s">
+      <c r="B115" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="165"/>
-      <c r="D115" s="165"/>
-      <c r="E115" s="166" t="s">
+      <c r="C115" s="162"/>
+      <c r="D115" s="162"/>
+      <c r="E115" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="166" t="s">
+      <c r="F115" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="157" t="s">
+      <c r="G115" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="154" t="s">
+      <c r="H115" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="155"/>
-      <c r="J115" s="155"/>
-      <c r="K115" s="155"/>
-      <c r="L115" s="155"/>
-      <c r="M115" s="155"/>
-      <c r="N115" s="156"/>
-      <c r="O115" s="157" t="s">
+      <c r="I115" s="168"/>
+      <c r="J115" s="168"/>
+      <c r="K115" s="168"/>
+      <c r="L115" s="168"/>
+      <c r="M115" s="168"/>
+      <c r="N115" s="169"/>
+      <c r="O115" s="165" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="158"/>
+      <c r="A116" s="161"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -5506,9 +5524,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="167"/>
-      <c r="F116" s="168"/>
-      <c r="G116" s="158"/>
+      <c r="E116" s="164"/>
+      <c r="F116" s="166"/>
+      <c r="G116" s="161"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -5530,7 +5548,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="158"/>
+      <c r="O116" s="161"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -5659,14 +5677,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="159" t="s">
+      <c r="A122" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="160"/>
-      <c r="C122" s="160"/>
-      <c r="D122" s="160"/>
-      <c r="E122" s="160"/>
-      <c r="F122" s="161"/>
+      <c r="B122" s="158"/>
+      <c r="C122" s="158"/>
+      <c r="D122" s="158"/>
+      <c r="E122" s="158"/>
+      <c r="F122" s="159"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -5709,6 +5727,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="H115:N115"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A45:F45"/>
@@ -5725,34 +5771,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="H115:N115"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -5787,42 +5805,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5842,23 +5860,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -5981,36 +5999,36 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="166" t="s">
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
       <c r="O11" s="126"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="131" t="s">
         <v>14</v>
       </c>
@@ -6020,9 +6038,9 @@
       <c r="D12" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="174"/>
       <c r="H12" s="131" t="s">
         <v>204</v>
       </c>
@@ -9685,14 +9703,14 @@
       <c r="Q107" s="130"/>
     </row>
     <row r="108" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="172" t="s">
+      <c r="A108" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="173"/>
-      <c r="C108" s="173"/>
-      <c r="D108" s="173"/>
-      <c r="E108" s="173"/>
-      <c r="F108" s="174"/>
+      <c r="B108" s="172"/>
+      <c r="C108" s="172"/>
+      <c r="D108" s="172"/>
+      <c r="E108" s="172"/>
+      <c r="F108" s="173"/>
       <c r="G108" s="132">
         <f t="shared" ref="G108:N108" si="3">SUM(G13:G107)</f>
         <v>1608424.6799999995</v>
@@ -9790,34 +9808,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -9833,19 +9851,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -9944,14 +9962,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -9961,13 +9979,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -13139,14 +13157,14 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="172" t="s">
+      <c r="A100" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="173"/>
-      <c r="C100" s="173"/>
-      <c r="D100" s="173"/>
-      <c r="E100" s="173"/>
-      <c r="F100" s="174"/>
+      <c r="B100" s="172"/>
+      <c r="C100" s="172"/>
+      <c r="D100" s="172"/>
+      <c r="E100" s="172"/>
+      <c r="F100" s="173"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>1581699.3999999994</v>
@@ -13197,7 +13215,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13217,34 +13235,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13260,19 +13278,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -13288,10 +13306,10 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="179"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
@@ -13306,62 +13324,62 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+    <row r="7" spans="1:15" s="204" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="201"/>
+      <c r="C7" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="203" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-    </row>
-    <row r="8" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+    </row>
+    <row r="8" spans="1:15" s="204" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="180"/>
-      <c r="C8" s="151" t="s">
+      <c r="B8" s="201"/>
+      <c r="C8" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="203" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-    </row>
-    <row r="9" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179" t="s">
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+    </row>
+    <row r="9" spans="1:15" s="204" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="151" t="s">
+      <c r="B9" s="206"/>
+      <c r="C9" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="208"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -13379,30 +13397,30 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="166" t="s">
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -13412,9 +13430,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="158"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="161"/>
       <c r="H12" s="2" t="s">
         <v>208</v>
       </c>
@@ -13427,7 +13445,7 @@
       <c r="K12" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="152" t="s">
+      <c r="L12" s="151" t="s">
         <v>247</v>
       </c>
       <c r="M12" s="147" t="s">
@@ -13686,14 +13704,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="139">
         <f>SUM(G13:G18)</f>
         <v>25507.279999999999</v>
@@ -13767,42 +13785,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13822,23 +13840,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="170" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -13961,38 +13979,38 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="166" t="s">
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="169"/>
       <c r="O11" s="126" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -14002,9 +14020,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="158"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="161"/>
       <c r="H12" s="2" t="s">
         <v>204</v>
       </c>
@@ -14079,14 +14097,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="132">
         <f t="shared" ref="G14:N14" si="0">SUM(G13:G13)</f>
         <v>1218</v>
@@ -14184,34 +14202,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -14227,19 +14245,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -14338,14 +14356,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -14355,13 +14373,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -15974,14 +15992,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="172" t="s">
+      <c r="A100" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="173"/>
-      <c r="C100" s="173"/>
-      <c r="D100" s="173"/>
-      <c r="E100" s="173"/>
-      <c r="F100" s="174"/>
+      <c r="B100" s="172"/>
+      <c r="C100" s="172"/>
+      <c r="D100" s="172"/>
+      <c r="E100" s="172"/>
+      <c r="F100" s="173"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -16126,34 +16144,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -16169,19 +16187,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -16280,14 +16298,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -16297,13 +16315,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -17916,14 +17934,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="172" t="s">
+      <c r="A100" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="173"/>
-      <c r="C100" s="173"/>
-      <c r="D100" s="173"/>
-      <c r="E100" s="173"/>
-      <c r="F100" s="174"/>
+      <c r="B100" s="172"/>
+      <c r="C100" s="172"/>
+      <c r="D100" s="172"/>
+      <c r="E100" s="172"/>
+      <c r="F100" s="173"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -18076,21 +18094,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -18108,21 +18126,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -18232,37 +18250,37 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="196" t="s">
+      <c r="D10" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="182" t="s">
+      <c r="I10" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="184" t="s">
+      <c r="J10" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="184" t="s">
+      <c r="K10" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="184" t="s">
+      <c r="L10" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="186" t="s">
@@ -18271,17 +18289,17 @@
       <c r="N10" s="187"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="195"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -18437,10 +18455,10 @@
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="181" t="s">
+      <c r="M20" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="181"/>
+      <c r="N20" s="200"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -18462,21 +18480,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -18494,21 +18512,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -18618,37 +18636,37 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="194" t="s">
+      <c r="B31" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="184" t="s">
+      <c r="C31" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="196" t="s">
+      <c r="D31" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="184" t="s">
+      <c r="E31" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="184" t="s">
+      <c r="G31" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="184" t="s">
+      <c r="H31" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="182" t="s">
+      <c r="I31" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="184" t="s">
+      <c r="J31" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="184" t="s">
+      <c r="K31" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="184" t="s">
+      <c r="L31" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M31" s="186" t="s">
@@ -18657,17 +18675,17 @@
       <c r="N31" s="187"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="195"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -18761,31 +18779,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="198" t="s">
+      <c r="B38" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="199"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="200"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="196"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="201"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="202"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="203"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="198"/>
+      <c r="N38" s="199"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="181" t="s">
+      <c r="M40" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="181"/>
+      <c r="N40" s="200"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -18807,21 +18825,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="170"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="170"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -18839,21 +18857,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="170"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -18963,37 +18981,37 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="194" t="s">
+      <c r="B51" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="184" t="s">
+      <c r="C51" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="196" t="s">
+      <c r="D51" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="184" t="s">
+      <c r="E51" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="184" t="s">
+      <c r="F51" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="184" t="s">
+      <c r="G51" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="184" t="s">
+      <c r="H51" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="182" t="s">
+      <c r="I51" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="184" t="s">
+      <c r="J51" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="184" t="s">
+      <c r="K51" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="184" t="s">
+      <c r="L51" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M51" s="186" t="s">
@@ -19002,17 +19020,17 @@
       <c r="N51" s="187"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="195"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="183"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="185"/>
-      <c r="L52" s="185"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="185"/>
+      <c r="J52" s="181"/>
+      <c r="K52" s="181"/>
+      <c r="L52" s="181"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -19089,31 +19107,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="198" t="s">
+      <c r="B57" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="199"/>
-      <c r="D57" s="199"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="199"/>
-      <c r="G57" s="199"/>
-      <c r="H57" s="200"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="196"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="201"/>
-      <c r="K57" s="202"/>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
+      <c r="J57" s="197"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="198"/>
+      <c r="M57" s="198"/>
+      <c r="N57" s="199"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="181" t="s">
+      <c r="M59" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="181"/>
+      <c r="N59" s="200"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -19143,21 +19161,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="153"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="153"/>
-      <c r="F64" s="153"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="153"/>
-      <c r="N64" s="153"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="170"/>
+      <c r="K64" s="170"/>
+      <c r="L64" s="170"/>
+      <c r="M64" s="170"/>
+      <c r="N64" s="170"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -19175,21 +19193,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="153" t="s">
+      <c r="B66" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="153"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="153"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="153"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
-      <c r="N66" s="153"/>
+      <c r="C66" s="170"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="170"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="170"/>
+      <c r="J66" s="170"/>
+      <c r="K66" s="170"/>
+      <c r="L66" s="170"/>
+      <c r="M66" s="170"/>
+      <c r="N66" s="170"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -19299,37 +19317,37 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="194" t="s">
+      <c r="B72" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="184" t="s">
+      <c r="C72" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="196" t="s">
+      <c r="D72" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="184" t="s">
+      <c r="E72" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="184" t="s">
+      <c r="F72" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="184" t="s">
+      <c r="G72" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="184" t="s">
+      <c r="H72" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="182" t="s">
+      <c r="I72" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="184" t="s">
+      <c r="J72" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="184" t="s">
+      <c r="K72" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="184" t="s">
+      <c r="L72" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M72" s="186" t="s">
@@ -19338,17 +19356,17 @@
       <c r="N72" s="187"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="195"/>
-      <c r="C73" s="185"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="185"/>
-      <c r="F73" s="185"/>
-      <c r="G73" s="185"/>
-      <c r="H73" s="185"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="185"/>
-      <c r="K73" s="185"/>
-      <c r="L73" s="185"/>
+      <c r="B73" s="179"/>
+      <c r="C73" s="181"/>
+      <c r="D73" s="183"/>
+      <c r="E73" s="181"/>
+      <c r="F73" s="181"/>
+      <c r="G73" s="181"/>
+      <c r="H73" s="181"/>
+      <c r="I73" s="185"/>
+      <c r="J73" s="181"/>
+      <c r="K73" s="181"/>
+      <c r="L73" s="181"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -19429,10 +19447,10 @@
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="181" t="s">
+      <c r="M79" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="181"/>
+      <c r="N79" s="200"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -19477,20 +19495,44 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B38:H38"/>
@@ -19507,44 +19549,20 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -19585,21 +19603,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -19709,37 +19727,37 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="196" t="s">
+      <c r="D9" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="184" t="s">
+      <c r="E9" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="184" t="s">
+      <c r="F9" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="184" t="s">
+      <c r="H9" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="182" t="s">
+      <c r="I9" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="184" t="s">
+      <c r="J9" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="184" t="s">
+      <c r="K9" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="184" t="s">
+      <c r="L9" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M9" s="186" t="s">
@@ -19748,17 +19766,17 @@
       <c r="N9" s="187"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="195"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -20210,21 +20228,21 @@
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -20334,37 +20352,37 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="194" t="s">
+      <c r="B42" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="184" t="s">
+      <c r="C42" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="196" t="s">
+      <c r="D42" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="184" t="s">
+      <c r="E42" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="F42" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="184" t="s">
+      <c r="G42" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="182" t="s">
+      <c r="I42" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="184" t="s">
+      <c r="J42" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="184" t="s">
+      <c r="K42" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="184" t="s">
+      <c r="L42" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M42" s="186" t="s">
@@ -20373,17 +20391,17 @@
       <c r="N42" s="187"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="195"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="197"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="183"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="185"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="181"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -20392,24 +20410,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="198" t="s">
+      <c r="B44" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="199"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="199"/>
-      <c r="F44" s="199"/>
-      <c r="G44" s="199"/>
-      <c r="H44" s="200"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="196"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="201"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="202"/>
-      <c r="N44" s="203"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="198"/>
+      <c r="N44" s="199"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -20796,21 +20814,21 @@
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="153" t="s">
+      <c r="B67" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
-      <c r="N67" s="153"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="J67" s="170"/>
+      <c r="K67" s="170"/>
+      <c r="L67" s="170"/>
+      <c r="M67" s="170"/>
+      <c r="N67" s="170"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -20920,37 +20938,37 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="194" t="s">
+      <c r="B74" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="184" t="s">
+      <c r="C74" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="196" t="s">
+      <c r="D74" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="184" t="s">
+      <c r="E74" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="184" t="s">
+      <c r="F74" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="184" t="s">
+      <c r="G74" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="184" t="s">
+      <c r="H74" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="182" t="s">
+      <c r="I74" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="184" t="s">
+      <c r="J74" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="184" t="s">
+      <c r="K74" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="184" t="s">
+      <c r="L74" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M74" s="186" t="s">
@@ -20959,17 +20977,17 @@
       <c r="N74" s="187"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="195"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="197"/>
-      <c r="E75" s="185"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="183"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="185"/>
-      <c r="L75" s="185"/>
+      <c r="B75" s="179"/>
+      <c r="C75" s="181"/>
+      <c r="D75" s="183"/>
+      <c r="E75" s="181"/>
+      <c r="F75" s="181"/>
+      <c r="G75" s="181"/>
+      <c r="H75" s="181"/>
+      <c r="I75" s="185"/>
+      <c r="J75" s="181"/>
+      <c r="K75" s="181"/>
+      <c r="L75" s="181"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -20978,24 +20996,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="198" t="s">
+      <c r="B76" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="199"/>
-      <c r="D76" s="199"/>
-      <c r="E76" s="199"/>
-      <c r="F76" s="199"/>
-      <c r="G76" s="199"/>
-      <c r="H76" s="200"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="195"/>
+      <c r="H76" s="196"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="201"/>
-      <c r="K76" s="202"/>
-      <c r="L76" s="202"/>
-      <c r="M76" s="202"/>
-      <c r="N76" s="203"/>
+      <c r="J76" s="197"/>
+      <c r="K76" s="198"/>
+      <c r="L76" s="198"/>
+      <c r="M76" s="198"/>
+      <c r="N76" s="199"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -21461,21 +21479,21 @@
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="153" t="s">
+      <c r="B101" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="153"/>
-      <c r="D101" s="153"/>
-      <c r="E101" s="153"/>
-      <c r="F101" s="153"/>
-      <c r="G101" s="153"/>
-      <c r="H101" s="153"/>
-      <c r="I101" s="153"/>
-      <c r="J101" s="153"/>
-      <c r="K101" s="153"/>
-      <c r="L101" s="153"/>
-      <c r="M101" s="153"/>
-      <c r="N101" s="153"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="170"/>
+      <c r="M101" s="170"/>
+      <c r="N101" s="170"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -21585,37 +21603,37 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="194" t="s">
+      <c r="B108" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="184" t="s">
+      <c r="C108" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="196" t="s">
+      <c r="D108" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="184" t="s">
+      <c r="E108" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="184" t="s">
+      <c r="F108" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="184" t="s">
+      <c r="G108" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="184" t="s">
+      <c r="H108" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="182" t="s">
+      <c r="I108" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="184" t="s">
+      <c r="J108" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="184" t="s">
+      <c r="K108" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="184" t="s">
+      <c r="L108" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M108" s="186" t="s">
@@ -21624,17 +21642,17 @@
       <c r="N108" s="187"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="195"/>
-      <c r="C109" s="185"/>
-      <c r="D109" s="197"/>
-      <c r="E109" s="185"/>
-      <c r="F109" s="185"/>
-      <c r="G109" s="185"/>
-      <c r="H109" s="185"/>
-      <c r="I109" s="183"/>
-      <c r="J109" s="185"/>
-      <c r="K109" s="185"/>
-      <c r="L109" s="185"/>
+      <c r="B109" s="179"/>
+      <c r="C109" s="181"/>
+      <c r="D109" s="183"/>
+      <c r="E109" s="181"/>
+      <c r="F109" s="181"/>
+      <c r="G109" s="181"/>
+      <c r="H109" s="181"/>
+      <c r="I109" s="185"/>
+      <c r="J109" s="181"/>
+      <c r="K109" s="181"/>
+      <c r="L109" s="181"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -21643,24 +21661,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="198" t="s">
+      <c r="B110" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="199"/>
-      <c r="D110" s="199"/>
-      <c r="E110" s="199"/>
-      <c r="F110" s="199"/>
-      <c r="G110" s="199"/>
-      <c r="H110" s="200"/>
+      <c r="C110" s="195"/>
+      <c r="D110" s="195"/>
+      <c r="E110" s="195"/>
+      <c r="F110" s="195"/>
+      <c r="G110" s="195"/>
+      <c r="H110" s="196"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="201"/>
-      <c r="K110" s="202"/>
-      <c r="L110" s="202"/>
-      <c r="M110" s="202"/>
-      <c r="N110" s="203"/>
+      <c r="J110" s="197"/>
+      <c r="K110" s="198"/>
+      <c r="L110" s="198"/>
+      <c r="M110" s="198"/>
+      <c r="N110" s="199"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -22053,21 +22071,21 @@
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="153" t="s">
+      <c r="B134" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="153"/>
-      <c r="D134" s="153"/>
-      <c r="E134" s="153"/>
-      <c r="F134" s="153"/>
-      <c r="G134" s="153"/>
-      <c r="H134" s="153"/>
-      <c r="I134" s="153"/>
-      <c r="J134" s="153"/>
-      <c r="K134" s="153"/>
-      <c r="L134" s="153"/>
-      <c r="M134" s="153"/>
-      <c r="N134" s="153"/>
+      <c r="C134" s="170"/>
+      <c r="D134" s="170"/>
+      <c r="E134" s="170"/>
+      <c r="F134" s="170"/>
+      <c r="G134" s="170"/>
+      <c r="H134" s="170"/>
+      <c r="I134" s="170"/>
+      <c r="J134" s="170"/>
+      <c r="K134" s="170"/>
+      <c r="L134" s="170"/>
+      <c r="M134" s="170"/>
+      <c r="N134" s="170"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -22177,37 +22195,37 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="194" t="s">
+      <c r="B141" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="184" t="s">
+      <c r="C141" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="196" t="s">
+      <c r="D141" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="184" t="s">
+      <c r="E141" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="184" t="s">
+      <c r="F141" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="184" t="s">
+      <c r="G141" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="184" t="s">
+      <c r="H141" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="182" t="s">
+      <c r="I141" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="184" t="s">
+      <c r="J141" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="184" t="s">
+      <c r="K141" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="184" t="s">
+      <c r="L141" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M141" s="186" t="s">
@@ -22216,17 +22234,17 @@
       <c r="N141" s="187"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="195"/>
-      <c r="C142" s="185"/>
-      <c r="D142" s="197"/>
-      <c r="E142" s="185"/>
-      <c r="F142" s="185"/>
-      <c r="G142" s="185"/>
-      <c r="H142" s="185"/>
-      <c r="I142" s="183"/>
-      <c r="J142" s="185"/>
-      <c r="K142" s="185"/>
-      <c r="L142" s="185"/>
+      <c r="B142" s="179"/>
+      <c r="C142" s="181"/>
+      <c r="D142" s="183"/>
+      <c r="E142" s="181"/>
+      <c r="F142" s="181"/>
+      <c r="G142" s="181"/>
+      <c r="H142" s="181"/>
+      <c r="I142" s="185"/>
+      <c r="J142" s="181"/>
+      <c r="K142" s="181"/>
+      <c r="L142" s="181"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -22235,24 +22253,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="198" t="s">
+      <c r="B143" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="199"/>
-      <c r="D143" s="199"/>
-      <c r="E143" s="199"/>
-      <c r="F143" s="199"/>
-      <c r="G143" s="199"/>
-      <c r="H143" s="200"/>
+      <c r="C143" s="195"/>
+      <c r="D143" s="195"/>
+      <c r="E143" s="195"/>
+      <c r="F143" s="195"/>
+      <c r="G143" s="195"/>
+      <c r="H143" s="196"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="201"/>
-      <c r="K143" s="202"/>
-      <c r="L143" s="202"/>
-      <c r="M143" s="202"/>
-      <c r="N143" s="203"/>
+      <c r="J143" s="197"/>
+      <c r="K143" s="198"/>
+      <c r="L143" s="198"/>
+      <c r="M143" s="198"/>
+      <c r="N143" s="199"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -22601,21 +22619,21 @@
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="153" t="s">
+      <c r="B165" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="153"/>
-      <c r="D165" s="153"/>
-      <c r="E165" s="153"/>
-      <c r="F165" s="153"/>
-      <c r="G165" s="153"/>
-      <c r="H165" s="153"/>
-      <c r="I165" s="153"/>
-      <c r="J165" s="153"/>
-      <c r="K165" s="153"/>
-      <c r="L165" s="153"/>
-      <c r="M165" s="153"/>
-      <c r="N165" s="153"/>
+      <c r="C165" s="170"/>
+      <c r="D165" s="170"/>
+      <c r="E165" s="170"/>
+      <c r="F165" s="170"/>
+      <c r="G165" s="170"/>
+      <c r="H165" s="170"/>
+      <c r="I165" s="170"/>
+      <c r="J165" s="170"/>
+      <c r="K165" s="170"/>
+      <c r="L165" s="170"/>
+      <c r="M165" s="170"/>
+      <c r="N165" s="170"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -22725,37 +22743,37 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="194" t="s">
+      <c r="B172" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="184" t="s">
+      <c r="C172" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="196" t="s">
+      <c r="D172" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="184" t="s">
+      <c r="E172" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="184" t="s">
+      <c r="F172" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="184" t="s">
+      <c r="G172" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="184" t="s">
+      <c r="H172" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="182" t="s">
+      <c r="I172" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="184" t="s">
+      <c r="J172" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="184" t="s">
+      <c r="K172" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="184" t="s">
+      <c r="L172" s="180" t="s">
         <v>37</v>
       </c>
       <c r="M172" s="186" t="s">
@@ -22764,17 +22782,17 @@
       <c r="N172" s="187"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="195"/>
-      <c r="C173" s="185"/>
-      <c r="D173" s="197"/>
-      <c r="E173" s="185"/>
-      <c r="F173" s="185"/>
-      <c r="G173" s="185"/>
-      <c r="H173" s="185"/>
-      <c r="I173" s="183"/>
-      <c r="J173" s="185"/>
-      <c r="K173" s="185"/>
-      <c r="L173" s="185"/>
+      <c r="B173" s="179"/>
+      <c r="C173" s="181"/>
+      <c r="D173" s="183"/>
+      <c r="E173" s="181"/>
+      <c r="F173" s="181"/>
+      <c r="G173" s="181"/>
+      <c r="H173" s="181"/>
+      <c r="I173" s="185"/>
+      <c r="J173" s="181"/>
+      <c r="K173" s="181"/>
+      <c r="L173" s="181"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -22783,24 +22801,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="198" t="s">
+      <c r="B174" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="199"/>
-      <c r="D174" s="199"/>
-      <c r="E174" s="199"/>
-      <c r="F174" s="199"/>
-      <c r="G174" s="199"/>
-      <c r="H174" s="200"/>
+      <c r="C174" s="195"/>
+      <c r="D174" s="195"/>
+      <c r="E174" s="195"/>
+      <c r="F174" s="195"/>
+      <c r="G174" s="195"/>
+      <c r="H174" s="196"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="201"/>
-      <c r="K174" s="202"/>
-      <c r="L174" s="202"/>
-      <c r="M174" s="202"/>
-      <c r="N174" s="203"/>
+      <c r="J174" s="197"/>
+      <c r="K174" s="198"/>
+      <c r="L174" s="198"/>
+      <c r="M174" s="198"/>
+      <c r="N174" s="199"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -22866,31 +22884,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="198" t="s">
+      <c r="B178" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="199"/>
-      <c r="D178" s="199"/>
-      <c r="E178" s="199"/>
-      <c r="F178" s="199"/>
-      <c r="G178" s="199"/>
-      <c r="H178" s="200"/>
+      <c r="C178" s="195"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="195"/>
+      <c r="F178" s="195"/>
+      <c r="G178" s="195"/>
+      <c r="H178" s="196"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="201"/>
-      <c r="K178" s="202"/>
-      <c r="L178" s="202"/>
-      <c r="M178" s="202"/>
-      <c r="N178" s="203"/>
+      <c r="J178" s="197"/>
+      <c r="K178" s="198"/>
+      <c r="L178" s="198"/>
+      <c r="M178" s="198"/>
+      <c r="N178" s="199"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="181" t="s">
+      <c r="M180" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="181"/>
+      <c r="N180" s="200"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22907,90 +22925,6 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -23008,6 +22942,90 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2014.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2014.xlsx
@@ -2437,19 +2437,33 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2461,11 +2475,14 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2476,22 +2493,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2512,32 +2523,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2563,6 +2574,18 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2580,29 +2603,6 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2932,42 +2932,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -2987,23 +2987,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -3126,38 +3126,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="163" t="s">
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="163" t="s">
+      <c r="F12" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="165" t="s">
+      <c r="G12" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="165" t="s">
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="161"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3167,9 +3167,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="161"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="162"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="161"/>
+      <c r="O13" s="162"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -3762,14 +3762,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="165"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -3802,42 +3802,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -3960,38 +3960,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="163" t="s">
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="163" t="s">
+      <c r="F43" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="165" t="s">
+      <c r="G43" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="167" t="s">
+      <c r="H43" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="169"/>
-      <c r="O43" s="165" t="s">
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="161" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="161"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -4001,9 +4001,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="161"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="162"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -4025,17 +4025,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="161"/>
+      <c r="O44" s="162"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="156"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="175"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -4490,14 +4490,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="157" t="s">
+      <c r="A66" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="158"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="159"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="165"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -4530,42 +4530,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="152" t="s">
+      <c r="A69" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="152"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="152"/>
-      <c r="L69" s="152"/>
-      <c r="M69" s="152"/>
-      <c r="N69" s="152"/>
-      <c r="O69" s="152"/>
+      <c r="B69" s="166"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="166"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="166"/>
+      <c r="I69" s="166"/>
+      <c r="J69" s="166"/>
+      <c r="K69" s="166"/>
+      <c r="L69" s="166"/>
+      <c r="M69" s="166"/>
+      <c r="N69" s="166"/>
+      <c r="O69" s="166"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+      <c r="A70" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="153"/>
-      <c r="N70" s="153"/>
-      <c r="O70" s="153"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="167"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="167"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="167"/>
+      <c r="L70" s="167"/>
+      <c r="M70" s="167"/>
+      <c r="N70" s="167"/>
+      <c r="O70" s="167"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -4688,38 +4688,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="160" t="s">
+      <c r="A77" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="162" t="s">
+      <c r="B77" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="162"/>
-      <c r="D77" s="162"/>
-      <c r="E77" s="163" t="s">
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="163" t="s">
+      <c r="F77" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="165" t="s">
+      <c r="G77" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="167" t="s">
+      <c r="H77" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="169"/>
-      <c r="O77" s="165" t="s">
+      <c r="I77" s="159"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="159"/>
+      <c r="L77" s="159"/>
+      <c r="M77" s="159"/>
+      <c r="N77" s="160"/>
+      <c r="O77" s="161" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="161"/>
+      <c r="A78" s="162"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -4729,9 +4729,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="164"/>
-      <c r="F78" s="166"/>
-      <c r="G78" s="161"/>
+      <c r="E78" s="171"/>
+      <c r="F78" s="172"/>
+      <c r="G78" s="162"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -4753,17 +4753,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="161"/>
+      <c r="O78" s="162"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="154" t="s">
+      <c r="A79" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="155"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="155"/>
-      <c r="E79" s="155"/>
-      <c r="F79" s="156"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
+      <c r="E79" s="174"/>
+      <c r="F79" s="175"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -5196,14 +5196,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="157" t="s">
+      <c r="A99" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="158"/>
-      <c r="C99" s="158"/>
-      <c r="D99" s="158"/>
-      <c r="E99" s="158"/>
-      <c r="F99" s="159"/>
+      <c r="B99" s="164"/>
+      <c r="C99" s="164"/>
+      <c r="D99" s="164"/>
+      <c r="E99" s="164"/>
+      <c r="F99" s="165"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -5289,42 +5289,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="152" t="s">
+      <c r="A105" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="152"/>
-      <c r="C105" s="152"/>
-      <c r="D105" s="152"/>
-      <c r="E105" s="152"/>
-      <c r="F105" s="152"/>
-      <c r="G105" s="152"/>
-      <c r="H105" s="152"/>
-      <c r="I105" s="152"/>
-      <c r="J105" s="152"/>
-      <c r="K105" s="152"/>
-      <c r="L105" s="152"/>
-      <c r="M105" s="152"/>
-      <c r="N105" s="152"/>
-      <c r="O105" s="152"/>
+      <c r="B105" s="166"/>
+      <c r="C105" s="166"/>
+      <c r="D105" s="166"/>
+      <c r="E105" s="166"/>
+      <c r="F105" s="166"/>
+      <c r="G105" s="166"/>
+      <c r="H105" s="166"/>
+      <c r="I105" s="166"/>
+      <c r="J105" s="166"/>
+      <c r="K105" s="166"/>
+      <c r="L105" s="166"/>
+      <c r="M105" s="166"/>
+      <c r="N105" s="166"/>
+      <c r="O105" s="166"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="153" t="s">
+      <c r="A106" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="153"/>
-      <c r="C106" s="153"/>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
-      <c r="K106" s="153"/>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
-      <c r="O106" s="153"/>
+      <c r="B106" s="167"/>
+      <c r="C106" s="167"/>
+      <c r="D106" s="167"/>
+      <c r="E106" s="167"/>
+      <c r="F106" s="167"/>
+      <c r="G106" s="167"/>
+      <c r="H106" s="167"/>
+      <c r="I106" s="167"/>
+      <c r="J106" s="167"/>
+      <c r="K106" s="167"/>
+      <c r="L106" s="167"/>
+      <c r="M106" s="167"/>
+      <c r="N106" s="167"/>
+      <c r="O106" s="167"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -5344,23 +5344,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="170" t="s">
+      <c r="A108" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="170"/>
-      <c r="C108" s="170"/>
-      <c r="D108" s="170"/>
-      <c r="E108" s="170"/>
-      <c r="F108" s="170"/>
-      <c r="G108" s="170"/>
-      <c r="H108" s="170"/>
-      <c r="I108" s="170"/>
-      <c r="J108" s="170"/>
-      <c r="K108" s="170"/>
-      <c r="L108" s="170"/>
-      <c r="M108" s="170"/>
-      <c r="N108" s="170"/>
-      <c r="O108" s="170"/>
+      <c r="B108" s="157"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
+      <c r="E108" s="157"/>
+      <c r="F108" s="157"/>
+      <c r="G108" s="157"/>
+      <c r="H108" s="157"/>
+      <c r="I108" s="157"/>
+      <c r="J108" s="157"/>
+      <c r="K108" s="157"/>
+      <c r="L108" s="157"/>
+      <c r="M108" s="157"/>
+      <c r="N108" s="157"/>
+      <c r="O108" s="157"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -5483,38 +5483,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="160" t="s">
+      <c r="A115" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="162" t="s">
+      <c r="B115" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="162"/>
-      <c r="D115" s="162"/>
-      <c r="E115" s="163" t="s">
+      <c r="C115" s="169"/>
+      <c r="D115" s="169"/>
+      <c r="E115" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="163" t="s">
+      <c r="F115" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="165" t="s">
+      <c r="G115" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="167" t="s">
+      <c r="H115" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="168"/>
-      <c r="J115" s="168"/>
-      <c r="K115" s="168"/>
-      <c r="L115" s="168"/>
-      <c r="M115" s="168"/>
-      <c r="N115" s="169"/>
-      <c r="O115" s="165" t="s">
+      <c r="I115" s="159"/>
+      <c r="J115" s="159"/>
+      <c r="K115" s="159"/>
+      <c r="L115" s="159"/>
+      <c r="M115" s="159"/>
+      <c r="N115" s="160"/>
+      <c r="O115" s="161" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="161"/>
+      <c r="A116" s="162"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -5524,9 +5524,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="164"/>
-      <c r="F116" s="166"/>
-      <c r="G116" s="161"/>
+      <c r="E116" s="171"/>
+      <c r="F116" s="172"/>
+      <c r="G116" s="162"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="161"/>
+      <c r="O116" s="162"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -5677,14 +5677,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="157" t="s">
+      <c r="A122" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="158"/>
-      <c r="C122" s="158"/>
-      <c r="D122" s="158"/>
-      <c r="E122" s="158"/>
-      <c r="F122" s="159"/>
+      <c r="B122" s="164"/>
+      <c r="C122" s="164"/>
+      <c r="D122" s="164"/>
+      <c r="E122" s="164"/>
+      <c r="F122" s="165"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -5727,6 +5727,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -5743,34 +5771,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -5783,7 +5783,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -5805,42 +5805,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5860,23 +5860,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -5999,36 +5999,36 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="163" t="s">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="163" t="s">
+      <c r="F11" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="168"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
       <c r="O11" s="126"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="131" t="s">
         <v>14</v>
       </c>
@@ -6038,9 +6038,9 @@
       <c r="D12" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="174"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="179"/>
       <c r="H12" s="131" t="s">
         <v>204</v>
       </c>
@@ -9703,14 +9703,14 @@
       <c r="Q107" s="130"/>
     </row>
     <row r="108" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="171" t="s">
+      <c r="A108" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="172"/>
-      <c r="C108" s="172"/>
-      <c r="D108" s="172"/>
-      <c r="E108" s="172"/>
-      <c r="F108" s="173"/>
+      <c r="B108" s="177"/>
+      <c r="C108" s="177"/>
+      <c r="D108" s="177"/>
+      <c r="E108" s="177"/>
+      <c r="F108" s="178"/>
       <c r="G108" s="132">
         <f t="shared" ref="G108:N108" si="3">SUM(G13:G107)</f>
         <v>1608424.6799999995</v>
@@ -9789,10 +9789,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9808,34 +9809,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -9851,19 +9852,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -9962,14 +9963,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -9979,13 +9980,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -11459,7 +11460,7 @@
       </c>
       <c r="M52" s="130"/>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="118">
         <v>41</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="118">
         <v>42</v>
       </c>
@@ -11603,7 +11604,7 @@
       <c r="L56" s="130"/>
       <c r="M56" s="130"/>
     </row>
-    <row r="57" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="118">
         <v>45</v>
       </c>
@@ -12221,7 +12222,7 @@
       </c>
       <c r="M73" s="130"/>
     </row>
-    <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="118">
         <v>62</v>
       </c>
@@ -12597,7 +12598,7 @@
       </c>
       <c r="M84" s="130"/>
     </row>
-    <row r="85" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="120">
         <v>73</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="118">
         <v>74</v>
       </c>
@@ -12748,7 +12749,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="118">
         <v>77</v>
       </c>
@@ -12856,7 +12857,7 @@
       </c>
       <c r="M91" s="130"/>
     </row>
-    <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="118">
         <v>80</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="118">
         <v>81</v>
       </c>
@@ -12966,7 +12967,7 @@
       <c r="L94" s="130"/>
       <c r="M94" s="130"/>
     </row>
-    <row r="95" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="118">
         <v>83</v>
       </c>
@@ -13004,7 +13005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="118">
         <v>84</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="120">
         <v>85</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="118">
         <v>86</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="120">
         <v>88</v>
       </c>
@@ -13157,14 +13158,14 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="171" t="s">
+      <c r="A100" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="172"/>
-      <c r="C100" s="172"/>
-      <c r="D100" s="172"/>
-      <c r="E100" s="172"/>
-      <c r="F100" s="173"/>
+      <c r="B100" s="177"/>
+      <c r="C100" s="177"/>
+      <c r="D100" s="177"/>
+      <c r="E100" s="177"/>
+      <c r="F100" s="178"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>1581699.3999999994</v>
@@ -13195,7 +13196,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E12:M101"/>
+  <autoFilter ref="E12:M101">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="COSTO DIRECTO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A100:F100"/>
     <mergeCell ref="A1:K1"/>
@@ -13215,7 +13222,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13235,34 +13242,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13278,19 +13285,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -13306,10 +13313,10 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="177"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
@@ -13324,62 +13331,62 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:15" s="204" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201" t="s">
+    <row r="7" spans="1:15" s="153" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="202" t="s">
+      <c r="B7" s="184"/>
+      <c r="C7" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="203" t="s">
+      <c r="D7" s="182" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-    </row>
-    <row r="8" spans="1:15" s="204" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="201" t="s">
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+    </row>
+    <row r="8" spans="1:15" s="153" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="201"/>
-      <c r="C8" s="205" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="182" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
-    </row>
-    <row r="9" spans="1:15" s="204" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+    </row>
+    <row r="9" spans="1:15" s="153" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="205" t="s">
+      <c r="B9" s="185"/>
+      <c r="C9" s="154" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="102"/>
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
       <c r="J9" s="102"/>
-      <c r="K9" s="208"/>
+      <c r="K9" s="156"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -13397,30 +13404,30 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="163" t="s">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="163" t="s">
+      <c r="F11" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -13430,9 +13437,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="161"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="2" t="s">
         <v>208</v>
       </c>
@@ -13539,39 +13546,36 @@
         <v>3</v>
       </c>
       <c r="B15" s="123">
-        <v>41869</v>
+        <v>41864</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="137">
-        <v>591</v>
+        <v>163</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>229</v>
       </c>
       <c r="E15" s="118">
-        <v>9399</v>
+        <v>9672</v>
       </c>
       <c r="F15" s="118">
-        <v>5222</v>
+        <v>5229</v>
       </c>
       <c r="G15" s="135">
-        <v>4350</v>
-      </c>
-      <c r="H15" s="128">
-        <v>4350</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="H15" s="128"/>
       <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="J15" s="128">
+        <v>4000</v>
+      </c>
       <c r="K15" s="136" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="L15" t="s">
         <v>253</v>
       </c>
       <c r="M15" t="s">
         <v>254</v>
-      </c>
-      <c r="N15" t="s">
-        <v>261</v>
       </c>
       <c r="O15" t="s">
         <v>263</v>
@@ -13625,36 +13629,39 @@
         <v>5</v>
       </c>
       <c r="B17" s="123">
-        <v>41864</v>
+        <v>41869</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="134" t="s">
-        <v>229</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="137">
+        <v>591</v>
       </c>
       <c r="E17" s="118">
-        <v>9672</v>
+        <v>9399</v>
       </c>
       <c r="F17" s="118">
-        <v>5229</v>
+        <v>5222</v>
       </c>
       <c r="G17" s="135">
-        <v>4000</v>
-      </c>
-      <c r="H17" s="128"/>
+        <v>4350</v>
+      </c>
+      <c r="H17" s="128">
+        <v>4350</v>
+      </c>
       <c r="I17" s="128"/>
-      <c r="J17" s="128">
-        <v>4000</v>
-      </c>
+      <c r="J17" s="128"/>
       <c r="K17" s="136" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="L17" t="s">
         <v>253</v>
       </c>
       <c r="M17" t="s">
         <v>254</v>
+      </c>
+      <c r="N17" t="s">
+        <v>261</v>
       </c>
       <c r="O17" t="s">
         <v>263</v>
@@ -13704,14 +13711,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="171" t="s">
+      <c r="A19" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="173"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="178"/>
       <c r="G19" s="139">
         <f>SUM(G13:G18)</f>
         <v>25507.279999999999</v>
@@ -13732,6 +13739,9 @@
     </row>
   </sheetData>
   <autoFilter ref="K12:K20"/>
+  <sortState ref="A13:O18">
+    <sortCondition ref="B13:B18"/>
+  </sortState>
   <mergeCells count="16">
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A1:K1"/>
@@ -13785,42 +13795,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -13840,23 +13850,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -13979,38 +13989,38 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="163" t="s">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="163" t="s">
+      <c r="F11" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="169"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="160"/>
       <c r="O11" s="126" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -14020,9 +14030,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="161"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="2" t="s">
         <v>204</v>
       </c>
@@ -14097,14 +14107,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="173"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="132">
         <f t="shared" ref="G14:N14" si="0">SUM(G13:G13)</f>
         <v>1218</v>
@@ -14202,34 +14212,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -14245,19 +14255,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -14356,14 +14366,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -14373,13 +14383,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -15992,14 +16002,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="171" t="s">
+      <c r="A100" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="172"/>
-      <c r="C100" s="172"/>
-      <c r="D100" s="172"/>
-      <c r="E100" s="172"/>
-      <c r="F100" s="173"/>
+      <c r="B100" s="177"/>
+      <c r="C100" s="177"/>
+      <c r="D100" s="177"/>
+      <c r="E100" s="177"/>
+      <c r="F100" s="178"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -16144,34 +16154,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -16187,19 +16197,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -16298,14 +16308,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="150" t="s">
         <v>10</v>
       </c>
@@ -16315,13 +16325,13 @@
       <c r="G11" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
       <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -17934,14 +17944,14 @@
       <c r="M99" s="130"/>
     </row>
     <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="171" t="s">
+      <c r="A100" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="172"/>
-      <c r="C100" s="172"/>
-      <c r="D100" s="172"/>
-      <c r="E100" s="172"/>
-      <c r="F100" s="173"/>
+      <c r="B100" s="177"/>
+      <c r="C100" s="177"/>
+      <c r="D100" s="177"/>
+      <c r="E100" s="177"/>
+      <c r="F100" s="178"/>
       <c r="G100" s="132">
         <f>SUM(G13:G99)</f>
         <v>82715.200000000012</v>
@@ -18094,21 +18104,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -18126,21 +18136,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -18250,56 +18260,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="182" t="s">
+      <c r="D10" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="180" t="s">
+      <c r="F10" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="180" t="s">
+      <c r="G10" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="180" t="s">
+      <c r="H10" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="184" t="s">
+      <c r="I10" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="180" t="s">
+      <c r="J10" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="180" t="s">
+      <c r="K10" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="180" t="s">
+      <c r="L10" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="186" t="s">
+      <c r="M10" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="187"/>
+      <c r="N10" s="192"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="179"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -18434,31 +18444,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="190"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="195"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="191"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="193"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="198"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="200" t="s">
+      <c r="M20" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="200"/>
+      <c r="N20" s="186"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -18480,21 +18490,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -18512,21 +18522,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -18636,56 +18646,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="180" t="s">
+      <c r="C31" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="180" t="s">
+      <c r="E31" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="180" t="s">
+      <c r="F31" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="180" t="s">
+      <c r="G31" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="180" t="s">
+      <c r="H31" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="184" t="s">
+      <c r="I31" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="180" t="s">
+      <c r="J31" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="180" t="s">
+      <c r="K31" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="180" t="s">
+      <c r="L31" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="186" t="s">
+      <c r="M31" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="187"/>
+      <c r="N31" s="192"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="179"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -18779,31 +18789,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="196"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="205"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="197"/>
-      <c r="K38" s="198"/>
-      <c r="L38" s="198"/>
-      <c r="M38" s="198"/>
-      <c r="N38" s="199"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="208"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="200" t="s">
+      <c r="M40" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="200"/>
+      <c r="N40" s="186"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -18825,21 +18835,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="170" t="s">
+      <c r="B43" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -18857,21 +18867,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="170" t="s">
+      <c r="B45" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="170"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -18981,56 +18991,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="180" t="s">
+      <c r="C51" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="180" t="s">
+      <c r="E51" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="180" t="s">
+      <c r="F51" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="180" t="s">
+      <c r="G51" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="180" t="s">
+      <c r="H51" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="184" t="s">
+      <c r="I51" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="180" t="s">
+      <c r="J51" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="180" t="s">
+      <c r="K51" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="180" t="s">
+      <c r="L51" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="186" t="s">
+      <c r="M51" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="187"/>
+      <c r="N51" s="192"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="179"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="183"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="181"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="181"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
+      <c r="H52" s="190"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="190"/>
+      <c r="L52" s="190"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -19107,31 +19117,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="194" t="s">
+      <c r="B57" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="195"/>
-      <c r="D57" s="195"/>
-      <c r="E57" s="195"/>
-      <c r="F57" s="195"/>
-      <c r="G57" s="195"/>
-      <c r="H57" s="196"/>
+      <c r="C57" s="204"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="205"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="197"/>
-      <c r="K57" s="198"/>
-      <c r="L57" s="198"/>
-      <c r="M57" s="198"/>
-      <c r="N57" s="199"/>
+      <c r="J57" s="206"/>
+      <c r="K57" s="207"/>
+      <c r="L57" s="207"/>
+      <c r="M57" s="207"/>
+      <c r="N57" s="208"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="200" t="s">
+      <c r="M59" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="200"/>
+      <c r="N59" s="186"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -19161,21 +19171,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="170" t="s">
+      <c r="B64" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="170"/>
-      <c r="J64" s="170"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="170"/>
-      <c r="M64" s="170"/>
-      <c r="N64" s="170"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -19193,21 +19203,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="170" t="s">
+      <c r="B66" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="170"/>
-      <c r="D66" s="170"/>
-      <c r="E66" s="170"/>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="170"/>
-      <c r="I66" s="170"/>
-      <c r="J66" s="170"/>
-      <c r="K66" s="170"/>
-      <c r="L66" s="170"/>
-      <c r="M66" s="170"/>
-      <c r="N66" s="170"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -19317,56 +19327,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="178" t="s">
+      <c r="B72" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="180" t="s">
+      <c r="C72" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="182" t="s">
+      <c r="D72" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="180" t="s">
+      <c r="E72" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="180" t="s">
+      <c r="F72" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="180" t="s">
+      <c r="G72" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="180" t="s">
+      <c r="H72" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="184" t="s">
+      <c r="I72" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="180" t="s">
+      <c r="J72" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="180" t="s">
+      <c r="K72" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="180" t="s">
+      <c r="L72" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="186" t="s">
+      <c r="M72" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="187"/>
+      <c r="N72" s="192"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="179"/>
-      <c r="C73" s="181"/>
-      <c r="D73" s="183"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="181"/>
-      <c r="G73" s="181"/>
-      <c r="H73" s="181"/>
-      <c r="I73" s="185"/>
-      <c r="J73" s="181"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="181"/>
+      <c r="B73" s="200"/>
+      <c r="C73" s="190"/>
+      <c r="D73" s="202"/>
+      <c r="E73" s="190"/>
+      <c r="F73" s="190"/>
+      <c r="G73" s="190"/>
+      <c r="H73" s="190"/>
+      <c r="I73" s="188"/>
+      <c r="J73" s="190"/>
+      <c r="K73" s="190"/>
+      <c r="L73" s="190"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -19426,31 +19436,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="188" t="s">
+      <c r="B77" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="189"/>
-      <c r="D77" s="189"/>
-      <c r="E77" s="189"/>
-      <c r="F77" s="189"/>
-      <c r="G77" s="189"/>
-      <c r="H77" s="190"/>
+      <c r="C77" s="194"/>
+      <c r="D77" s="194"/>
+      <c r="E77" s="194"/>
+      <c r="F77" s="194"/>
+      <c r="G77" s="194"/>
+      <c r="H77" s="195"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="191"/>
-      <c r="K77" s="192"/>
-      <c r="L77" s="192"/>
-      <c r="M77" s="192"/>
-      <c r="N77" s="193"/>
+      <c r="J77" s="196"/>
+      <c r="K77" s="197"/>
+      <c r="L77" s="197"/>
+      <c r="M77" s="197"/>
+      <c r="N77" s="198"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="200" t="s">
+      <c r="M79" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="200"/>
+      <c r="N79" s="186"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -19495,12 +19505,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -19517,52 +19567,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -19603,21 +19613,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -19727,56 +19737,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="180" t="s">
+      <c r="F9" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="180" t="s">
+      <c r="G9" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="180" t="s">
+      <c r="H9" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="184" t="s">
+      <c r="I9" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="180" t="s">
+      <c r="J9" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="180" t="s">
+      <c r="K9" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="180" t="s">
+      <c r="L9" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="186" t="s">
+      <c r="M9" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="187"/>
+      <c r="N9" s="192"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="179"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -20205,44 +20215,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="188" t="s">
+      <c r="B31" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="190"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="195"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="191"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="193"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="198"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="170" t="s">
+      <c r="B35" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -20352,56 +20362,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="180" t="s">
+      <c r="E42" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="180" t="s">
+      <c r="F42" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="180" t="s">
+      <c r="G42" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="180" t="s">
+      <c r="H42" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="184" t="s">
+      <c r="I42" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="180" t="s">
+      <c r="J42" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="180" t="s">
+      <c r="K42" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="180" t="s">
+      <c r="L42" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="186" t="s">
+      <c r="M42" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="187"/>
+      <c r="N42" s="192"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="179"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="181"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="190"/>
+      <c r="K43" s="190"/>
+      <c r="L43" s="190"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -20410,24 +20420,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="196"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="204"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="205"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="197"/>
-      <c r="K44" s="198"/>
-      <c r="L44" s="198"/>
-      <c r="M44" s="198"/>
-      <c r="N44" s="199"/>
+      <c r="J44" s="206"/>
+      <c r="K44" s="207"/>
+      <c r="L44" s="207"/>
+      <c r="M44" s="207"/>
+      <c r="N44" s="208"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -20791,44 +20801,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="189"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="190"/>
+      <c r="C63" s="194"/>
+      <c r="D63" s="194"/>
+      <c r="E63" s="194"/>
+      <c r="F63" s="194"/>
+      <c r="G63" s="194"/>
+      <c r="H63" s="195"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="191"/>
-      <c r="K63" s="192"/>
-      <c r="L63" s="192"/>
-      <c r="M63" s="192"/>
-      <c r="N63" s="193"/>
+      <c r="J63" s="196"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="197"/>
+      <c r="M63" s="197"/>
+      <c r="N63" s="198"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="170" t="s">
+      <c r="B67" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="170"/>
-      <c r="J67" s="170"/>
-      <c r="K67" s="170"/>
-      <c r="L67" s="170"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="170"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -20938,56 +20948,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="178" t="s">
+      <c r="B74" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="180" t="s">
+      <c r="C74" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="182" t="s">
+      <c r="D74" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="180" t="s">
+      <c r="E74" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="180" t="s">
+      <c r="F74" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="180" t="s">
+      <c r="G74" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="180" t="s">
+      <c r="H74" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="184" t="s">
+      <c r="I74" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="180" t="s">
+      <c r="J74" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="180" t="s">
+      <c r="K74" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="180" t="s">
+      <c r="L74" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="186" t="s">
+      <c r="M74" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="187"/>
+      <c r="N74" s="192"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="179"/>
-      <c r="C75" s="181"/>
-      <c r="D75" s="183"/>
-      <c r="E75" s="181"/>
-      <c r="F75" s="181"/>
-      <c r="G75" s="181"/>
-      <c r="H75" s="181"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="181"/>
-      <c r="K75" s="181"/>
-      <c r="L75" s="181"/>
+      <c r="B75" s="200"/>
+      <c r="C75" s="190"/>
+      <c r="D75" s="202"/>
+      <c r="E75" s="190"/>
+      <c r="F75" s="190"/>
+      <c r="G75" s="190"/>
+      <c r="H75" s="190"/>
+      <c r="I75" s="188"/>
+      <c r="J75" s="190"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="190"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -20996,24 +21006,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="194" t="s">
+      <c r="B76" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="195"/>
-      <c r="D76" s="195"/>
-      <c r="E76" s="195"/>
-      <c r="F76" s="195"/>
-      <c r="G76" s="195"/>
-      <c r="H76" s="196"/>
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="205"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="197"/>
-      <c r="K76" s="198"/>
-      <c r="L76" s="198"/>
-      <c r="M76" s="198"/>
-      <c r="N76" s="199"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="207"/>
+      <c r="L76" s="207"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="208"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -21456,44 +21466,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="188" t="s">
+      <c r="B97" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="189"/>
-      <c r="D97" s="189"/>
-      <c r="E97" s="189"/>
-      <c r="F97" s="189"/>
-      <c r="G97" s="189"/>
-      <c r="H97" s="190"/>
+      <c r="C97" s="194"/>
+      <c r="D97" s="194"/>
+      <c r="E97" s="194"/>
+      <c r="F97" s="194"/>
+      <c r="G97" s="194"/>
+      <c r="H97" s="195"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="191"/>
-      <c r="K97" s="192"/>
-      <c r="L97" s="192"/>
-      <c r="M97" s="192"/>
-      <c r="N97" s="193"/>
+      <c r="J97" s="196"/>
+      <c r="K97" s="197"/>
+      <c r="L97" s="197"/>
+      <c r="M97" s="197"/>
+      <c r="N97" s="198"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="170" t="s">
+      <c r="B101" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="170"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="170"/>
-      <c r="F101" s="170"/>
-      <c r="G101" s="170"/>
-      <c r="H101" s="170"/>
-      <c r="I101" s="170"/>
-      <c r="J101" s="170"/>
-      <c r="K101" s="170"/>
-      <c r="L101" s="170"/>
-      <c r="M101" s="170"/>
-      <c r="N101" s="170"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="157"/>
+      <c r="E101" s="157"/>
+      <c r="F101" s="157"/>
+      <c r="G101" s="157"/>
+      <c r="H101" s="157"/>
+      <c r="I101" s="157"/>
+      <c r="J101" s="157"/>
+      <c r="K101" s="157"/>
+      <c r="L101" s="157"/>
+      <c r="M101" s="157"/>
+      <c r="N101" s="157"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -21603,56 +21613,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="178" t="s">
+      <c r="B108" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="180" t="s">
+      <c r="C108" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="182" t="s">
+      <c r="D108" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="180" t="s">
+      <c r="E108" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="180" t="s">
+      <c r="F108" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="180" t="s">
+      <c r="G108" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="180" t="s">
+      <c r="H108" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="184" t="s">
+      <c r="I108" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="180" t="s">
+      <c r="J108" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="180" t="s">
+      <c r="K108" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="180" t="s">
+      <c r="L108" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="186" t="s">
+      <c r="M108" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="187"/>
+      <c r="N108" s="192"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="179"/>
-      <c r="C109" s="181"/>
-      <c r="D109" s="183"/>
-      <c r="E109" s="181"/>
-      <c r="F109" s="181"/>
-      <c r="G109" s="181"/>
-      <c r="H109" s="181"/>
-      <c r="I109" s="185"/>
-      <c r="J109" s="181"/>
-      <c r="K109" s="181"/>
-      <c r="L109" s="181"/>
+      <c r="B109" s="200"/>
+      <c r="C109" s="190"/>
+      <c r="D109" s="202"/>
+      <c r="E109" s="190"/>
+      <c r="F109" s="190"/>
+      <c r="G109" s="190"/>
+      <c r="H109" s="190"/>
+      <c r="I109" s="188"/>
+      <c r="J109" s="190"/>
+      <c r="K109" s="190"/>
+      <c r="L109" s="190"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -21661,24 +21671,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="194" t="s">
+      <c r="B110" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="195"/>
-      <c r="D110" s="195"/>
-      <c r="E110" s="195"/>
-      <c r="F110" s="195"/>
-      <c r="G110" s="195"/>
-      <c r="H110" s="196"/>
+      <c r="C110" s="204"/>
+      <c r="D110" s="204"/>
+      <c r="E110" s="204"/>
+      <c r="F110" s="204"/>
+      <c r="G110" s="204"/>
+      <c r="H110" s="205"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="197"/>
-      <c r="K110" s="198"/>
-      <c r="L110" s="198"/>
-      <c r="M110" s="198"/>
-      <c r="N110" s="199"/>
+      <c r="J110" s="206"/>
+      <c r="K110" s="207"/>
+      <c r="L110" s="207"/>
+      <c r="M110" s="207"/>
+      <c r="N110" s="208"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -22048,44 +22058,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="188" t="s">
+      <c r="B130" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="189"/>
-      <c r="D130" s="189"/>
-      <c r="E130" s="189"/>
-      <c r="F130" s="189"/>
-      <c r="G130" s="189"/>
-      <c r="H130" s="190"/>
+      <c r="C130" s="194"/>
+      <c r="D130" s="194"/>
+      <c r="E130" s="194"/>
+      <c r="F130" s="194"/>
+      <c r="G130" s="194"/>
+      <c r="H130" s="195"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="191"/>
-      <c r="K130" s="192"/>
-      <c r="L130" s="192"/>
-      <c r="M130" s="192"/>
-      <c r="N130" s="193"/>
+      <c r="J130" s="196"/>
+      <c r="K130" s="197"/>
+      <c r="L130" s="197"/>
+      <c r="M130" s="197"/>
+      <c r="N130" s="198"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="170" t="s">
+      <c r="B134" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="170"/>
-      <c r="D134" s="170"/>
-      <c r="E134" s="170"/>
-      <c r="F134" s="170"/>
-      <c r="G134" s="170"/>
-      <c r="H134" s="170"/>
-      <c r="I134" s="170"/>
-      <c r="J134" s="170"/>
-      <c r="K134" s="170"/>
-      <c r="L134" s="170"/>
-      <c r="M134" s="170"/>
-      <c r="N134" s="170"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="157"/>
+      <c r="E134" s="157"/>
+      <c r="F134" s="157"/>
+      <c r="G134" s="157"/>
+      <c r="H134" s="157"/>
+      <c r="I134" s="157"/>
+      <c r="J134" s="157"/>
+      <c r="K134" s="157"/>
+      <c r="L134" s="157"/>
+      <c r="M134" s="157"/>
+      <c r="N134" s="157"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -22195,56 +22205,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="178" t="s">
+      <c r="B141" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="180" t="s">
+      <c r="C141" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="182" t="s">
+      <c r="D141" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="180" t="s">
+      <c r="E141" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="180" t="s">
+      <c r="F141" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="180" t="s">
+      <c r="G141" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="180" t="s">
+      <c r="H141" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="184" t="s">
+      <c r="I141" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="180" t="s">
+      <c r="J141" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="180" t="s">
+      <c r="K141" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="180" t="s">
+      <c r="L141" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="186" t="s">
+      <c r="M141" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="187"/>
+      <c r="N141" s="192"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="179"/>
-      <c r="C142" s="181"/>
-      <c r="D142" s="183"/>
-      <c r="E142" s="181"/>
-      <c r="F142" s="181"/>
-      <c r="G142" s="181"/>
-      <c r="H142" s="181"/>
-      <c r="I142" s="185"/>
-      <c r="J142" s="181"/>
-      <c r="K142" s="181"/>
-      <c r="L142" s="181"/>
+      <c r="B142" s="200"/>
+      <c r="C142" s="190"/>
+      <c r="D142" s="202"/>
+      <c r="E142" s="190"/>
+      <c r="F142" s="190"/>
+      <c r="G142" s="190"/>
+      <c r="H142" s="190"/>
+      <c r="I142" s="188"/>
+      <c r="J142" s="190"/>
+      <c r="K142" s="190"/>
+      <c r="L142" s="190"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -22253,24 +22263,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="194" t="s">
+      <c r="B143" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="195"/>
-      <c r="D143" s="195"/>
-      <c r="E143" s="195"/>
-      <c r="F143" s="195"/>
-      <c r="G143" s="195"/>
-      <c r="H143" s="196"/>
+      <c r="C143" s="204"/>
+      <c r="D143" s="204"/>
+      <c r="E143" s="204"/>
+      <c r="F143" s="204"/>
+      <c r="G143" s="204"/>
+      <c r="H143" s="205"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="197"/>
-      <c r="K143" s="198"/>
-      <c r="L143" s="198"/>
-      <c r="M143" s="198"/>
-      <c r="N143" s="199"/>
+      <c r="J143" s="206"/>
+      <c r="K143" s="207"/>
+      <c r="L143" s="207"/>
+      <c r="M143" s="207"/>
+      <c r="N143" s="208"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -22596,44 +22606,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="188" t="s">
+      <c r="B161" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="189"/>
-      <c r="D161" s="189"/>
-      <c r="E161" s="189"/>
-      <c r="F161" s="189"/>
-      <c r="G161" s="189"/>
-      <c r="H161" s="190"/>
+      <c r="C161" s="194"/>
+      <c r="D161" s="194"/>
+      <c r="E161" s="194"/>
+      <c r="F161" s="194"/>
+      <c r="G161" s="194"/>
+      <c r="H161" s="195"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="191"/>
-      <c r="K161" s="192"/>
-      <c r="L161" s="192"/>
-      <c r="M161" s="192"/>
-      <c r="N161" s="193"/>
+      <c r="J161" s="196"/>
+      <c r="K161" s="197"/>
+      <c r="L161" s="197"/>
+      <c r="M161" s="197"/>
+      <c r="N161" s="198"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="170" t="s">
+      <c r="B165" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="170"/>
-      <c r="D165" s="170"/>
-      <c r="E165" s="170"/>
-      <c r="F165" s="170"/>
-      <c r="G165" s="170"/>
-      <c r="H165" s="170"/>
-      <c r="I165" s="170"/>
-      <c r="J165" s="170"/>
-      <c r="K165" s="170"/>
-      <c r="L165" s="170"/>
-      <c r="M165" s="170"/>
-      <c r="N165" s="170"/>
+      <c r="C165" s="157"/>
+      <c r="D165" s="157"/>
+      <c r="E165" s="157"/>
+      <c r="F165" s="157"/>
+      <c r="G165" s="157"/>
+      <c r="H165" s="157"/>
+      <c r="I165" s="157"/>
+      <c r="J165" s="157"/>
+      <c r="K165" s="157"/>
+      <c r="L165" s="157"/>
+      <c r="M165" s="157"/>
+      <c r="N165" s="157"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -22743,56 +22753,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="178" t="s">
+      <c r="B172" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="180" t="s">
+      <c r="C172" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="182" t="s">
+      <c r="D172" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="180" t="s">
+      <c r="E172" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="180" t="s">
+      <c r="F172" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="180" t="s">
+      <c r="G172" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="180" t="s">
+      <c r="H172" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="184" t="s">
+      <c r="I172" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="180" t="s">
+      <c r="J172" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="180" t="s">
+      <c r="K172" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="180" t="s">
+      <c r="L172" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="186" t="s">
+      <c r="M172" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="187"/>
+      <c r="N172" s="192"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="179"/>
-      <c r="C173" s="181"/>
-      <c r="D173" s="183"/>
-      <c r="E173" s="181"/>
-      <c r="F173" s="181"/>
-      <c r="G173" s="181"/>
-      <c r="H173" s="181"/>
-      <c r="I173" s="185"/>
-      <c r="J173" s="181"/>
-      <c r="K173" s="181"/>
-      <c r="L173" s="181"/>
+      <c r="B173" s="200"/>
+      <c r="C173" s="190"/>
+      <c r="D173" s="202"/>
+      <c r="E173" s="190"/>
+      <c r="F173" s="190"/>
+      <c r="G173" s="190"/>
+      <c r="H173" s="190"/>
+      <c r="I173" s="188"/>
+      <c r="J173" s="190"/>
+      <c r="K173" s="190"/>
+      <c r="L173" s="190"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -22801,24 +22811,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="194" t="s">
+      <c r="B174" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="195"/>
-      <c r="D174" s="195"/>
-      <c r="E174" s="195"/>
-      <c r="F174" s="195"/>
-      <c r="G174" s="195"/>
-      <c r="H174" s="196"/>
+      <c r="C174" s="204"/>
+      <c r="D174" s="204"/>
+      <c r="E174" s="204"/>
+      <c r="F174" s="204"/>
+      <c r="G174" s="204"/>
+      <c r="H174" s="205"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="197"/>
-      <c r="K174" s="198"/>
-      <c r="L174" s="198"/>
-      <c r="M174" s="198"/>
-      <c r="N174" s="199"/>
+      <c r="J174" s="206"/>
+      <c r="K174" s="207"/>
+      <c r="L174" s="207"/>
+      <c r="M174" s="207"/>
+      <c r="N174" s="208"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -22884,31 +22894,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="194" t="s">
+      <c r="B178" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="195"/>
-      <c r="D178" s="195"/>
-      <c r="E178" s="195"/>
-      <c r="F178" s="195"/>
-      <c r="G178" s="195"/>
-      <c r="H178" s="196"/>
+      <c r="C178" s="204"/>
+      <c r="D178" s="204"/>
+      <c r="E178" s="204"/>
+      <c r="F178" s="204"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="205"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="197"/>
-      <c r="K178" s="198"/>
-      <c r="L178" s="198"/>
-      <c r="M178" s="198"/>
-      <c r="N178" s="199"/>
+      <c r="J178" s="206"/>
+      <c r="K178" s="207"/>
+      <c r="L178" s="207"/>
+      <c r="M178" s="207"/>
+      <c r="N178" s="208"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="200" t="s">
+      <c r="M180" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="200"/>
+      <c r="N180" s="186"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22925,6 +22935,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -22942,90 +23036,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
